--- a/MS_Publish_Results.xlsx
+++ b/MS_Publish_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swahlig\Documents\UCSF Radiology\Research\MS Project\MS Paper\Frontier Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA4C01-1786-44A9-A80C-975FA1D6F294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF7120-E327-4524-9C11-BCCEC6C79C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{306C50EA-272A-423A-9676-647A0F5285A1}"/>
   </bookViews>
@@ -59,16 +59,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Std Dev</t>
   </si>
   <si>
     <t>Std Error</t>
-  </si>
-  <si>
-    <t>Exam #</t>
   </si>
   <si>
     <t>Grader 2</t>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>Lesionwise PPV</t>
+  </si>
+  <si>
+    <t>Exam (Averaged from k-folds cross validation)</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +184,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,13 +502,13 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="14" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.7265625" style="1"/>
@@ -518,43 +519,43 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -568,34 +569,34 @@
         <v>0.36734693877551022</v>
       </c>
       <c r="E2" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.57936507936507931</v>
       </c>
       <c r="F2" s="6">
-        <v>0.42857142857142855</v>
+        <v>0.42063492063492058</v>
       </c>
       <c r="G2" s="6">
-        <v>0.46938775510204084</v>
+        <v>0.66109221466364332</v>
       </c>
       <c r="H2" s="6">
-        <v>0.26530612244897961</v>
+        <v>0.50907029478458055</v>
       </c>
       <c r="I2" s="6">
-        <v>0.51020408163265307</v>
+        <v>0.6025264974903819</v>
       </c>
       <c r="J2" s="6">
-        <v>0.40816326530612246</v>
+        <v>0.52758589390812505</v>
       </c>
       <c r="K2" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.58527138695678027</v>
       </c>
       <c r="L2" s="6">
-        <v>0.51020408163265307</v>
+        <v>0.54287519002607287</v>
       </c>
       <c r="M2" s="6">
-        <v>0.51020408163265307</v>
+        <v>0.64902502823851138</v>
       </c>
       <c r="N2" s="6">
-        <v>0.53061224489795922</v>
+        <v>0.61915342499879689</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -609,34 +610,34 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="6">
-        <v>0.7</v>
+        <v>0.50674157303370793</v>
       </c>
       <c r="F3" s="6">
-        <v>0.7</v>
+        <v>0.4951310861423221</v>
       </c>
       <c r="G3" s="6">
-        <v>0.7</v>
+        <v>0.44120929085556632</v>
       </c>
       <c r="H3" s="6">
-        <v>0.7</v>
+        <v>0.34562969128096049</v>
       </c>
       <c r="I3" s="6">
-        <v>0.6</v>
+        <v>0.49319666554373176</v>
       </c>
       <c r="J3" s="6">
-        <v>0.6</v>
+        <v>0.48376747980368462</v>
       </c>
       <c r="K3" s="6">
-        <v>0.5</v>
+        <v>0.61363797898129979</v>
       </c>
       <c r="L3" s="6">
-        <v>0.6</v>
+        <v>0.5759278415208503</v>
       </c>
       <c r="M3" s="6">
-        <v>0.6</v>
+        <v>0.54996664222631764</v>
       </c>
       <c r="N3" s="6">
-        <v>0.6</v>
+        <v>0.58058412434192708</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -650,34 +651,34 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="E4" s="6">
-        <v>0.82608695652173914</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F4" s="6">
-        <v>0.69565217391304346</v>
+        <v>0.35</v>
       </c>
       <c r="G4" s="6">
-        <v>0.73913043478260865</v>
+        <v>0.41851851851851851</v>
       </c>
       <c r="H4" s="6">
-        <v>0.47826086956521741</v>
+        <v>0.36296296296296293</v>
       </c>
       <c r="I4" s="6">
-        <v>0.65217391304347827</v>
+        <v>0.56965811965811963</v>
       </c>
       <c r="J4" s="6">
-        <v>0.60869565217391308</v>
+        <v>0.58354700854700858</v>
       </c>
       <c r="K4" s="6">
-        <v>0.82608695652173914</v>
+        <v>0.56136752136752133</v>
       </c>
       <c r="L4" s="6">
-        <v>0.78260869565217395</v>
+        <v>0.47726495726495727</v>
       </c>
       <c r="M4" s="6">
-        <v>0.91304347826086951</v>
+        <v>0.53675213675213684</v>
       </c>
       <c r="N4" s="6">
-        <v>0.82608695652173914</v>
+        <v>0.58276353276353277</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -691,34 +692,34 @@
         <v>0.20689655172413793</v>
       </c>
       <c r="E5" s="6">
-        <v>0.51724137931034486</v>
+        <v>0.47430696416497636</v>
       </c>
       <c r="F5" s="6">
-        <v>0.43103448275862066</v>
+        <v>0.36257606490872207</v>
       </c>
       <c r="G5" s="6">
-        <v>0.48275862068965519</v>
+        <v>0.55010551765115656</v>
       </c>
       <c r="H5" s="6">
-        <v>0.22413793103448276</v>
+        <v>0.40032167516954537</v>
       </c>
       <c r="I5" s="6">
-        <v>0.48275862068965519</v>
+        <v>0.53545878863224927</v>
       </c>
       <c r="J5" s="6">
-        <v>0.39655172413793105</v>
+        <v>0.43396629053077396</v>
       </c>
       <c r="K5" s="6">
-        <v>0.53448275862068961</v>
+        <v>0.58869748324043947</v>
       </c>
       <c r="L5" s="6">
-        <v>0.46551724137931033</v>
+        <v>0.49216043177307328</v>
       </c>
       <c r="M5" s="6">
-        <v>0.56896551724137934</v>
+        <v>0.63202806049105864</v>
       </c>
       <c r="N5" s="6">
-        <v>0.51724137931034486</v>
+        <v>0.54350281589697935</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -732,34 +733,34 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="E6" s="6">
-        <v>0.64102564102564108</v>
+        <v>0.63869463869463872</v>
       </c>
       <c r="F6" s="6">
-        <v>0.51282051282051277</v>
+        <v>0.52913752913752909</v>
       </c>
       <c r="G6" s="6">
-        <v>0.64102564102564108</v>
+        <v>0.60256410256410253</v>
       </c>
       <c r="H6" s="6">
-        <v>0.46153846153846156</v>
+        <v>0.49222999222999225</v>
       </c>
       <c r="I6" s="6">
-        <v>0.76923076923076927</v>
+        <v>0.70313020313020314</v>
       </c>
       <c r="J6" s="6">
-        <v>0.5641025641025641</v>
+        <v>0.56039793539793537</v>
       </c>
       <c r="K6" s="6">
-        <v>0.58974358974358976</v>
+        <v>0.6417582417582417</v>
       </c>
       <c r="L6" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.70986050986050986</v>
       </c>
       <c r="M6" s="6">
-        <v>0.74358974358974361</v>
+        <v>0.59723424723424734</v>
       </c>
       <c r="N6" s="6">
-        <v>0.64102564102564108</v>
+        <v>0.57581307581307584</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -773,34 +774,34 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E7" s="6">
-        <v>0.5</v>
+        <v>0.6908212560386473</v>
       </c>
       <c r="F7" s="6">
-        <v>0.375</v>
+        <v>0.55893719806763287</v>
       </c>
       <c r="G7" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.51489533011272137</v>
       </c>
       <c r="H7" s="6">
-        <v>0.375</v>
+        <v>0.39090177133655396</v>
       </c>
       <c r="I7" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.54414466873706013</v>
       </c>
       <c r="J7" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.48649930986887513</v>
       </c>
       <c r="K7" s="6">
-        <v>0.70833333333333337</v>
+        <v>0.6800983436853002</v>
       </c>
       <c r="L7" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.62108523119392678</v>
       </c>
       <c r="M7" s="6">
-        <v>0.625</v>
+        <v>0.73505918751681465</v>
       </c>
       <c r="N7" s="6">
-        <v>0.70833333333333337</v>
+        <v>0.69612098544486167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -814,34 +815,34 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="E8" s="6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="6">
-        <v>0.7</v>
+        <v>0.4375</v>
       </c>
       <c r="G8" s="6">
-        <v>0.8</v>
+        <v>0.64869281045751637</v>
       </c>
       <c r="H8" s="6">
-        <v>0.6333333333333333</v>
+        <v>0.65441176470588236</v>
       </c>
       <c r="I8" s="6">
-        <v>0.73333333333333328</v>
+        <v>0.71878501400560224</v>
       </c>
       <c r="J8" s="6">
-        <v>0.73333333333333328</v>
+        <v>0.67622549019607847</v>
       </c>
       <c r="K8" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.7339832350850789</v>
       </c>
       <c r="L8" s="6">
-        <v>0.8</v>
+        <v>0.58913666959321032</v>
       </c>
       <c r="M8" s="6">
-        <v>0.8</v>
+        <v>0.62385471698690398</v>
       </c>
       <c r="N8" s="6">
-        <v>0.8666666666666667</v>
+        <v>0.65907152510318545</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -855,34 +856,34 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="E9" s="6">
-        <v>0.69230769230769229</v>
+        <v>0.4555555555555556</v>
       </c>
       <c r="F9" s="6">
-        <v>0.58974358974358976</v>
+        <v>0.40555555555555556</v>
       </c>
       <c r="G9" s="6">
-        <v>0.61538461538461542</v>
+        <v>0.49458689458689459</v>
       </c>
       <c r="H9" s="6">
-        <v>0.48717948717948717</v>
+        <v>0.36353276353276359</v>
       </c>
       <c r="I9" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.48348023504273502</v>
       </c>
       <c r="J9" s="6">
-        <v>0.64102564102564108</v>
+        <v>0.46184561965811965</v>
       </c>
       <c r="K9" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.52052584948926417</v>
       </c>
       <c r="L9" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.46910204294350633</v>
       </c>
       <c r="M9" s="6">
-        <v>0.64102564102564108</v>
+        <v>0.51237837274422637</v>
       </c>
       <c r="N9" s="6">
-        <v>0.69230769230769229</v>
+        <v>0.56608102004443472</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -896,34 +897,34 @@
         <v>0.34883720930232559</v>
       </c>
       <c r="E10" s="6">
-        <v>0.65116279069767447</v>
+        <v>0.5635451505016722</v>
       </c>
       <c r="F10" s="6">
-        <v>0.58139534883720934</v>
+        <v>0.46878483835005574</v>
       </c>
       <c r="G10" s="6">
-        <v>0.58139534883720934</v>
+        <v>0.61394463024897805</v>
       </c>
       <c r="H10" s="6">
-        <v>0.53488372093023251</v>
+        <v>0.51384243775548122</v>
       </c>
       <c r="I10" s="6">
-        <v>0.76744186046511631</v>
+        <v>0.68772644927536231</v>
       </c>
       <c r="J10" s="6">
-        <v>0.65116279069767447</v>
+        <v>0.51804626532887399</v>
       </c>
       <c r="K10" s="6">
-        <v>0.69767441860465118</v>
+        <v>0.70173395445134579</v>
       </c>
       <c r="L10" s="6">
-        <v>0.58139534883720934</v>
+        <v>0.63398033126293996</v>
       </c>
       <c r="M10" s="6">
-        <v>0.69767441860465118</v>
+        <v>0.74553830227743279</v>
       </c>
       <c r="N10" s="6">
-        <v>0.67441860465116277</v>
+        <v>0.71821846631629249</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -937,34 +938,34 @@
         <v>0.4</v>
       </c>
       <c r="E11" s="6">
-        <v>0.8</v>
+        <v>0.64376321353065546</v>
       </c>
       <c r="F11" s="6">
-        <v>0.8666666666666667</v>
+        <v>0.47251585623678649</v>
       </c>
       <c r="G11" s="6">
-        <v>0.8</v>
+        <v>0.59043144624539978</v>
       </c>
       <c r="H11" s="6">
-        <v>0.73333333333333328</v>
+        <v>0.57593767128650841</v>
       </c>
       <c r="I11" s="6">
-        <v>0.8</v>
+        <v>0.74813474639056032</v>
       </c>
       <c r="J11" s="6">
-        <v>0.8666666666666667</v>
+        <v>0.68724679713051806</v>
       </c>
       <c r="K11" s="6">
-        <v>0.8</v>
+        <v>0.68956041374646027</v>
       </c>
       <c r="L11" s="6">
-        <v>0.8</v>
+        <v>0.62542769891607097</v>
       </c>
       <c r="M11" s="6">
-        <v>0.8</v>
+        <v>0.68130619380619384</v>
       </c>
       <c r="N11" s="6">
-        <v>0.8666666666666667</v>
+        <v>0.6453086211807143</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -972,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" ref="C12" si="0">AVERAGE(C2:C11)</f>
@@ -984,48 +985,48 @@
       </c>
       <c r="E12" s="7">
         <f>AVERAGE(E2:E11)</f>
-        <v>0.66992530312916632</v>
+        <v>0.57527934308849316</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" ref="F12" si="1">AVERAGE(F2:F11)</f>
-        <v>0.58808842033110709</v>
+        <v>0.45007730490335246</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(G2:G11)</f>
-        <v>0.62457490824884376</v>
+        <v>0.55360407559044966</v>
       </c>
       <c r="H12" s="7">
         <f>AVERAGE(H2:H11)</f>
-        <v>0.48929732593635278</v>
+        <v>0.46088410250452316</v>
       </c>
       <c r="I12" s="7">
         <f>AVERAGE(I2:I11)</f>
-        <v>0.6440142578395005</v>
+        <v>0.60862413879060051</v>
       </c>
       <c r="J12" s="7">
         <f>AVERAGE(J2:J11)</f>
-        <v>0.58863683041105141</v>
+        <v>0.54191280903699934</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
-        <v>0.67277496282525751</v>
+        <v>0.63166344087617321</v>
       </c>
       <c r="L12" s="7">
         <f>AVERAGE(L2:L11)</f>
-        <v>0.65397253675013467</v>
+        <v>0.57368209043551166</v>
       </c>
       <c r="M12" s="7">
         <f>AVERAGE(M2:M11)</f>
-        <v>0.68995028803549385</v>
+        <v>0.62631428882738427</v>
       </c>
       <c r="N12" s="7">
         <f>AVERAGE(N2:N11)</f>
-        <v>0.69233591853812071</v>
+        <v>0.61866175919038002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6">
         <f>_xlfn.STDEV.S(C2:C11)</f>
@@ -1037,48 +1038,48 @@
       </c>
       <c r="E13" s="6">
         <f>_xlfn.STDEV.S(E2:E11)</f>
-        <v>0.1167650023641887</v>
+        <v>0.10417117999789489</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ref="F13" si="3">_xlfn.STDEV.S(F2:F11)</f>
-        <v>0.15472386991135811</v>
+        <v>6.8038764853880204E-2</v>
       </c>
       <c r="G13" s="6">
         <f>_xlfn.STDEV.S(G2:G11)</f>
-        <v>0.13743691483585421</v>
+        <v>8.4237903483665402E-2</v>
       </c>
       <c r="H13" s="6">
         <f>_xlfn.STDEV.S(H2:H11)</f>
-        <v>0.17036430456288953</v>
+        <v>0.1041975075858283</v>
       </c>
       <c r="I13" s="6">
         <f>_xlfn.STDEV.S(I2:I11)</f>
-        <v>0.12654639588607577</v>
+        <v>9.8227627029197795E-2</v>
       </c>
       <c r="J13" s="6">
         <f>_xlfn.STDEV.S(J2:J11)</f>
-        <v>0.15094748613801054</v>
+        <v>8.5975826163690733E-2</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" ref="K13" si="4">_xlfn.STDEV.S(K2:K11)</f>
-        <v>0.12180707934943646</v>
+        <v>6.8956842718996783E-2</v>
       </c>
       <c r="L13" s="6">
         <f>_xlfn.STDEV.S(L2:L11)</f>
-        <v>0.1173995902866363</v>
+        <v>7.8299346368642497E-2</v>
       </c>
       <c r="M13" s="6">
         <f>_xlfn.STDEV.S(M2:M11)</f>
-        <v>0.12408712526823051</v>
+        <v>7.9788460855224966E-2</v>
       </c>
       <c r="N13" s="6">
         <f>_xlfn.STDEV.S(N2:N11)</f>
-        <v>0.12789753649583363</v>
+        <v>5.8918885225134214E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8">
         <f>C13/SQRT(10)</f>
@@ -1090,87 +1091,87 @@
       </c>
       <c r="E14" s="8">
         <f>E13/SQRT(10)</f>
-        <v>3.6924335846578192E-2</v>
+        <v>3.2941819534072214E-2</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" si="5">F13/SQRT(10)</f>
-        <v>4.8927983731548622E-2</v>
+        <v>2.1515746612287483E-2</v>
       </c>
       <c r="G14" s="8">
         <f>G13/SQRT(10)</f>
-        <v>4.3461368546788587E-2</v>
+        <v>2.6638364032581519E-2</v>
       </c>
       <c r="H14" s="8">
         <f>H13/SQRT(10)</f>
-        <v>5.3873923440934744E-2</v>
+        <v>3.2950145048389001E-2</v>
       </c>
       <c r="I14" s="8">
         <f>I13/SQRT(10)</f>
-        <v>4.0017484068536113E-2</v>
+        <v>3.1062303056578384E-2</v>
       </c>
       <c r="J14" s="8">
         <f>J13/SQRT(10)</f>
-        <v>4.7733786327280682E-2</v>
+        <v>2.7187943439195925E-2</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14" si="6">K13/SQRT(10)</f>
-        <v>3.8518780587708003E-2</v>
+        <v>2.1806068324602808E-2</v>
       </c>
       <c r="L14" s="8">
         <f>L13/SQRT(10)</f>
-        <v>3.7125010167635059E-2</v>
+        <v>2.4760427382734426E-2</v>
       </c>
       <c r="M14" s="8">
         <f>M13/SQRT(10)</f>
-        <v>3.9239794415024051E-2</v>
+        <v>2.5231326730169711E-2</v>
       </c>
       <c r="N14" s="8">
         <f>N13/SQRT(10)</f>
-        <v>4.0444752245134462E-2</v>
+        <v>1.8631787450946669E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1184,34 +1185,34 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E18" s="6">
-        <v>0.71794871794871795</v>
+        <v>0.81019387116948094</v>
       </c>
       <c r="F18" s="6">
-        <v>0.375</v>
+        <v>0.58143939393939392</v>
       </c>
       <c r="G18" s="6">
-        <v>0.85185185185185186</v>
+        <v>0.73955850146326341</v>
       </c>
       <c r="H18" s="6">
-        <v>0.72222222222222221</v>
+        <v>0.60645672410378293</v>
       </c>
       <c r="I18" s="6">
-        <v>0.96153846153846156</v>
+        <v>0.77385251809593913</v>
       </c>
       <c r="J18" s="6">
-        <v>0.86956521739130432</v>
+        <v>0.7222128748619876</v>
       </c>
       <c r="K18" s="6">
-        <v>0.90322580645161288</v>
+        <v>0.69232642688463153</v>
       </c>
       <c r="L18" s="6">
-        <v>0.96153846153846156</v>
+        <v>0.65616015132408578</v>
       </c>
       <c r="M18" s="6">
-        <v>0.92592592592592593</v>
+        <v>0.65783522895324142</v>
       </c>
       <c r="N18" s="6">
-        <v>0.83870967741935487</v>
+        <v>0.57493630887915492</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1225,34 +1226,34 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E19" s="6">
-        <v>0.46153846153846156</v>
+        <v>0.69418386491557227</v>
       </c>
       <c r="F19" s="6">
-        <v>0.13978494623655913</v>
+        <v>0.52822580645161288</v>
       </c>
       <c r="G19" s="6">
-        <v>0.6</v>
+        <v>0.82987012987012987</v>
       </c>
       <c r="H19" s="6">
-        <v>0.42307692307692307</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="I19" s="6">
-        <v>0.70588235294117652</v>
+        <v>0.85707096473119304</v>
       </c>
       <c r="J19" s="6">
-        <v>0.56521739130434778</v>
+        <v>0.73053390757451464</v>
       </c>
       <c r="K19" s="6">
-        <v>0.6</v>
+        <v>0.72472868217054254</v>
       </c>
       <c r="L19" s="6">
-        <v>0.46153846153846156</v>
+        <v>0.60694535876012723</v>
       </c>
       <c r="M19" s="6">
-        <v>0.63157894736842102</v>
+        <v>0.76374077219147629</v>
       </c>
       <c r="N19" s="6">
-        <v>0.59090909090909094</v>
+        <v>0.68605348905009345</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1266,34 +1267,34 @@
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>0.36842105263157893</v>
+        <v>0.25563909774436089</v>
       </c>
       <c r="F20" s="6">
-        <v>0.15217391304347827</v>
+        <v>7.6086956521739135E-2</v>
       </c>
       <c r="G20" s="6">
-        <v>0.46666666666666667</v>
+        <v>0.3516339869281046</v>
       </c>
       <c r="H20" s="6">
-        <v>0.63636363636363635</v>
+        <v>0.29258098223615464</v>
       </c>
       <c r="I20" s="6">
-        <v>0.46153846153846156</v>
+        <v>0.49732905982905984</v>
       </c>
       <c r="J20" s="6">
-        <v>0.4</v>
+        <v>0.39473981900452493</v>
       </c>
       <c r="K20" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.49411027568922306</v>
       </c>
       <c r="L20" s="6">
-        <v>1</v>
+        <v>0.46195652173913038</v>
       </c>
       <c r="M20" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.55645933014354065</v>
       </c>
       <c r="N20" s="6">
-        <v>0.54545454545454541</v>
+        <v>0.4645736208236208</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1307,34 +1308,34 @@
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <v>0.8571428571428571</v>
+        <v>0.88690476190476186</v>
       </c>
       <c r="F21" s="6">
-        <v>0.3968253968253968</v>
+        <v>0.63958916900093365</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>0.9506172839506174</v>
       </c>
       <c r="H21" s="6">
-        <v>0.8666666666666667</v>
+        <v>0.79522946859903387</v>
       </c>
       <c r="I21" s="6">
-        <v>0.875</v>
+        <v>0.79903017241379315</v>
       </c>
       <c r="J21" s="6">
-        <v>0.85185185185185186</v>
+        <v>0.67781803542673114</v>
       </c>
       <c r="K21" s="6">
-        <v>0.96875</v>
+        <v>0.84744950738916247</v>
       </c>
       <c r="L21" s="6">
-        <v>1</v>
+        <v>0.73450336700336705</v>
       </c>
       <c r="M21" s="6">
-        <v>1</v>
+        <v>0.7497077014318394</v>
       </c>
       <c r="N21" s="6">
-        <v>0.90909090909090906</v>
+        <v>0.64749280933491471</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -1348,34 +1349,34 @@
         <v>0.91304347826086951</v>
       </c>
       <c r="E22" s="6">
-        <v>0.75757575757575757</v>
+        <v>0.76767676767676774</v>
       </c>
       <c r="F22" s="6">
-        <v>0.4</v>
+        <v>0.40930232558139534</v>
       </c>
       <c r="G22" s="6">
-        <v>0.78125</v>
+        <v>0.5320635257498586</v>
       </c>
       <c r="H22" s="6">
-        <v>0.75</v>
+        <v>0.46081977094635324</v>
       </c>
       <c r="I22" s="6">
-        <v>0.88235294117647056</v>
+        <v>0.59809027777777779</v>
       </c>
       <c r="J22" s="6">
-        <v>0.70967741935483875</v>
+        <v>0.40143896268184687</v>
       </c>
       <c r="K22" s="6">
-        <v>0.92</v>
+        <v>0.65840559440559443</v>
       </c>
       <c r="L22" s="6">
-        <v>1</v>
+        <v>0.47998619737750181</v>
       </c>
       <c r="M22" s="6">
-        <v>0.93548387096774188</v>
+        <v>0.56797222222222232</v>
       </c>
       <c r="N22" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.50384656196943978</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -1389,34 +1390,34 @@
         <v>1</v>
       </c>
       <c r="E23" s="6">
-        <v>0.61290322580645162</v>
+        <v>0.76941457586618878</v>
       </c>
       <c r="F23" s="6">
-        <v>0.20779220779220781</v>
+        <v>0.48389610389610394</v>
       </c>
       <c r="G23" s="6">
-        <v>0.62962962962962965</v>
+        <v>0.58518518518518514</v>
       </c>
       <c r="H23" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="I23" s="6">
-        <v>0.65217391304347827</v>
+        <v>0.75859903381642524</v>
       </c>
       <c r="J23" s="6">
-        <v>0.53846153846153844</v>
+        <v>0.65413015254787399</v>
       </c>
       <c r="K23" s="6">
-        <v>0.65517241379310343</v>
+        <v>0.72769882265345065</v>
       </c>
       <c r="L23" s="6">
-        <v>0.75</v>
+        <v>0.67522539288668315</v>
       </c>
       <c r="M23" s="6">
-        <v>0.72413793103448276</v>
+        <v>0.81743989948345663</v>
       </c>
       <c r="N23" s="6">
-        <v>0.6333333333333333</v>
+        <v>0.7007032476898285</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -1430,34 +1431,34 @@
         <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>0.35294117647058826</v>
+        <v>0.24789915966386555</v>
       </c>
       <c r="F24" s="6">
-        <v>0.14285714285714285</v>
+        <v>9.0659340659340656E-2</v>
       </c>
       <c r="G24" s="6">
-        <v>0.55555555555555558</v>
+        <v>0.42962962962962958</v>
       </c>
       <c r="H24" s="6">
-        <v>0.3</v>
+        <v>0.20926541159099299</v>
       </c>
       <c r="I24" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.51597222222222228</v>
       </c>
       <c r="J24" s="6">
-        <v>0.55555555555555558</v>
+        <v>0.52812608847091602</v>
       </c>
       <c r="K24" s="6">
-        <v>0.48571428571428571</v>
+        <v>0.59187584373724589</v>
       </c>
       <c r="L24" s="6">
-        <v>0.37209302325581395</v>
+        <v>0.49919720328375117</v>
       </c>
       <c r="M24" s="6">
-        <v>0.42857142857142855</v>
+        <v>0.71801166869660027</v>
       </c>
       <c r="N24" s="6">
-        <v>0.44736842105263158</v>
+        <v>0.55794391463321846</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -1471,34 +1472,34 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="E25" s="6">
-        <v>0.88888888888888884</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="F25" s="6">
-        <v>0.42857142857142855</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="G25" s="6">
-        <v>0.88888888888888884</v>
+        <v>0.68091168091168086</v>
       </c>
       <c r="H25" s="6">
-        <v>0.79166666666666663</v>
+        <v>0.33389295889295889</v>
       </c>
       <c r="I25" s="6">
-        <v>0.75862068965517238</v>
+        <v>0.6782915360501568</v>
       </c>
       <c r="J25" s="6">
-        <v>0.91666666666666663</v>
+        <v>0.43260416666666662</v>
       </c>
       <c r="K25" s="6">
-        <v>0.75757575757575757</v>
+        <v>0.68137022397891955</v>
       </c>
       <c r="L25" s="6">
-        <v>0.8571428571428571</v>
+        <v>0.51292727943890737</v>
       </c>
       <c r="M25" s="6">
-        <v>0.82758620689655171</v>
+        <v>0.67148148148148146</v>
       </c>
       <c r="N25" s="6">
-        <v>0.89655172413793105</v>
+        <v>0.58774232780102187</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -1512,34 +1513,34 @@
         <v>0.95454545454545459</v>
       </c>
       <c r="E26" s="6">
-        <v>0.55102040816326525</v>
+        <v>0.44792399718508091</v>
       </c>
       <c r="F26" s="6">
-        <v>0.19327731092436976</v>
+        <v>0.21092436974789916</v>
       </c>
       <c r="G26" s="6">
-        <v>0.77419354838709675</v>
+        <v>0.69658303464755067</v>
       </c>
       <c r="H26" s="6">
-        <v>0.73076923076923073</v>
+        <v>0.43247863247863244</v>
       </c>
       <c r="I26" s="6">
-        <v>0.76470588235294112</v>
+        <v>0.75148689187426632</v>
       </c>
       <c r="J26" s="6">
-        <v>0.67567567567567566</v>
+        <v>0.39483946155457783</v>
       </c>
       <c r="K26" s="6">
-        <v>0.76470588235294112</v>
+        <v>0.70469187675070022</v>
       </c>
       <c r="L26" s="6">
-        <v>0.70270270270270274</v>
+        <v>0.35055404949021973</v>
       </c>
       <c r="M26" s="6">
-        <v>0.7142857142857143</v>
+        <v>0.7698351648351649</v>
       </c>
       <c r="N26" s="6">
-        <v>0.67500000000000004</v>
+        <v>0.51417236979516889</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -1553,34 +1554,34 @@
         <v>0.9375</v>
       </c>
       <c r="E27" s="6">
-        <v>0.65116279069767447</v>
+        <v>0.60783945986496635</v>
       </c>
       <c r="F27" s="6">
-        <v>0.42372881355932202</v>
+        <v>0.38135593220338981</v>
       </c>
       <c r="G27" s="6">
-        <v>0.67567567567567566</v>
+        <v>0.67356305092154145</v>
       </c>
       <c r="H27" s="6">
-        <v>0.69696969696969702</v>
+        <v>0.48554430643982888</v>
       </c>
       <c r="I27" s="6">
-        <v>0.75</v>
+        <v>0.67604166666666665</v>
       </c>
       <c r="J27" s="6">
-        <v>0.7</v>
+        <v>0.47899659863945576</v>
       </c>
       <c r="K27" s="6">
-        <v>0.78947368421052633</v>
+        <v>0.73549381518311918</v>
       </c>
       <c r="L27" s="6">
-        <v>0.73529411764705888</v>
+        <v>0.46834164338458723</v>
       </c>
       <c r="M27" s="6">
-        <v>0.81081081081081086</v>
+        <v>0.7037416316054087</v>
       </c>
       <c r="N27" s="6">
-        <v>0.74358974358974361</v>
+        <v>0.51209833338316313</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -1588,125 +1589,161 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7">
+        <f>AVERAGE(C18:C27)</f>
         <v>0.74357505782539857</v>
       </c>
       <c r="D28" s="7">
+        <f t="shared" ref="D28:N28" si="7">AVERAGE(D18:D27)</f>
         <v>0.94638190915364828</v>
       </c>
       <c r="E28" s="7">
-        <v>0.62195433368642417</v>
+        <f t="shared" si="7"/>
+        <v>0.60321200004354891</v>
       </c>
       <c r="F28" s="7">
-        <v>0.28600111598099048</v>
+        <f t="shared" si="7"/>
+        <v>0.36713206678430782</v>
       </c>
       <c r="G28" s="7">
-        <v>0.72237118166553649</v>
+        <f t="shared" si="7"/>
+        <v>0.64696160092575616</v>
       </c>
       <c r="H28" s="7">
-        <v>0.63760683760683767</v>
+        <f t="shared" si="7"/>
+        <v>0.47545161185356016</v>
       </c>
       <c r="I28" s="7">
-        <v>0.72701460355794956</v>
+        <f t="shared" si="7"/>
+        <v>0.69057643434775007</v>
       </c>
       <c r="J28" s="7">
-        <v>0.67826713162617791</v>
+        <f t="shared" si="7"/>
+        <v>0.54154400674290959</v>
       </c>
       <c r="K28" s="7">
-        <v>0.72612844967648937</v>
+        <f t="shared" si="7"/>
+        <v>0.68581510688425884</v>
       </c>
       <c r="L28" s="7">
-        <v>0.78403096238253556</v>
+        <f t="shared" si="7"/>
+        <v>0.54457971646883607</v>
       </c>
       <c r="M28" s="7">
-        <v>0.76650475025277431</v>
+        <f t="shared" si="7"/>
+        <v>0.69762251010444321</v>
       </c>
       <c r="N28" s="7">
-        <v>0.71133407783208735</v>
+        <f t="shared" si="7"/>
+        <v>0.5749562983359624</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6">
-        <v>0.1519320275849522</v>
+        <f>_xlfn.STDEV.S(C18:C27)</f>
+        <v>0.1601504188986598</v>
       </c>
       <c r="D29" s="6">
-        <v>5.3560761756223763E-2</v>
+        <f t="shared" ref="D29:N29" si="8">_xlfn.STDEV.S(D18:D27)</f>
+        <v>5.6458000121102435E-2</v>
       </c>
       <c r="E29" s="6">
-        <v>0.17958923254305637</v>
+        <f t="shared" si="8"/>
+        <v>0.22630226936233408</v>
       </c>
       <c r="F29" s="6">
-        <v>0.12123827934196503</v>
+        <f t="shared" si="8"/>
+        <v>0.19909153497817847</v>
       </c>
       <c r="G29" s="6">
-        <v>0.15706426978879293</v>
+        <f t="shared" si="8"/>
+        <v>0.1795143139134843</v>
       </c>
       <c r="H29" s="6">
-        <v>0.17330320221150555</v>
+        <f t="shared" si="8"/>
+        <v>0.17442195916038933</v>
       </c>
       <c r="I29" s="6">
-        <v>0.1589634958741542</v>
+        <f t="shared" si="8"/>
+        <v>0.12087723430188499</v>
       </c>
       <c r="J29" s="6">
-        <v>0.15806427981039553</v>
+        <f t="shared" si="8"/>
+        <v>0.14073927734153174</v>
       </c>
       <c r="K29" s="6">
-        <v>0.17573085925087092</v>
+        <f t="shared" si="8"/>
+        <v>9.3456621562114484E-2</v>
       </c>
       <c r="L29" s="6">
-        <v>0.21462154786761631</v>
+        <f t="shared" si="8"/>
+        <v>0.11878903807586393</v>
       </c>
       <c r="M29" s="6">
-        <v>0.16157858079020188</v>
+        <f t="shared" si="8"/>
+        <v>8.5706961416607247E-2</v>
       </c>
       <c r="N29" s="6">
-        <v>0.14988744995816863</v>
+        <f t="shared" si="8"/>
+        <v>8.0798838316976387E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8">
-        <v>4.8045125669598024E-2</v>
+        <f>C29/SQRT(10)</f>
+        <v>5.064400919498397E-2</v>
       </c>
       <c r="D30" s="8">
-        <v>1.6937400036330728E-2</v>
+        <f t="shared" ref="D30:N30" si="9">D29/SQRT(10)</f>
+        <v>1.7853587252074588E-2</v>
       </c>
       <c r="E30" s="8">
-        <v>5.6791101807769119E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.1563061084991608E-2</v>
       </c>
       <c r="F30" s="8">
-        <v>3.8338910232034951E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.2958271339012523E-2</v>
       </c>
       <c r="G30" s="8">
-        <v>4.9668083156375914E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.6767410456906503E-2</v>
       </c>
       <c r="H30" s="8">
-        <v>5.4803284478908726E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.5157066489570056E-2</v>
       </c>
       <c r="I30" s="8">
-        <v>5.0268671178510617E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.8224737765578977E-2</v>
       </c>
       <c r="J30" s="8">
-        <v>4.9984314091501753E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.4505667264536759E-2</v>
       </c>
       <c r="K30" s="8">
-        <v>5.5570977041122287E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.9553578656068509E-2</v>
       </c>
       <c r="L30" s="8">
-        <v>6.7869292621252145E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.7564392138019549E-2</v>
       </c>
       <c r="M30" s="8">
-        <v>5.1095633639456697E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.7102920940865031E-2</v>
       </c>
       <c r="N30" s="8">
-        <v>4.7398573454232255E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.5550836137733127E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1718,14 +1755,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94AED77-515D-468A-A3D4-FB87837FBF7A}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.7265625" style="1"/>
@@ -1736,142 +1774,142 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E2" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G2" s="6">
         <v>0.5</v>
       </c>
       <c r="H2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.48809523809523803</v>
       </c>
       <c r="I2" s="6">
-        <v>0.5</v>
+        <v>0.52976190476190477</v>
       </c>
       <c r="J2" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.4238095238095238</v>
       </c>
       <c r="K2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.49523809523809514</v>
       </c>
       <c r="L2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>0.5</v>
       </c>
       <c r="D3" s="6">
-        <v>0.5</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="F3" s="6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="I3" s="6">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J3" s="6">
-        <v>1</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="K3" s="6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L3" s="6">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="M3" s="6">
-        <v>1</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>0.5</v>
       </c>
       <c r="D4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.5</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
       <c r="F4" s="6">
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G4" s="6">
         <v>0.5</v>
       </c>
       <c r="H4" s="6">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="I4" s="6">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="J4" s="6">
         <v>0.5</v>
@@ -1883,164 +1921,164 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="6">
-        <v>0.5</v>
+        <v>0.52777777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.46491228070175439</v>
       </c>
       <c r="I5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.42543859649122806</v>
       </c>
       <c r="J5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.3719298245614035</v>
       </c>
       <c r="K5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.40350877192982459</v>
       </c>
       <c r="L5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.51578947368421058</v>
       </c>
       <c r="M5" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.49415204678362573</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.45962732919254656</v>
       </c>
       <c r="E6" s="6">
-        <v>0.7142857142857143</v>
+        <v>0.57453416149068326</v>
       </c>
       <c r="F6" s="6">
-        <v>0.6428571428571429</v>
+        <v>0.67805383022774335</v>
       </c>
       <c r="G6" s="6">
-        <v>0.7142857142857143</v>
+        <v>0.75983436853002073</v>
       </c>
       <c r="H6" s="6">
-        <v>0.6428571428571429</v>
+        <v>0.68607660455486541</v>
       </c>
       <c r="I6" s="6">
-        <v>0.6428571428571429</v>
+        <v>0.54114906832298137</v>
       </c>
       <c r="J6" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.67660455486542448</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6428571428571429</v>
+        <v>0.71697722567287792</v>
       </c>
       <c r="L6" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.77898550724637672</v>
       </c>
       <c r="M6" s="6">
-        <v>0.6428571428571429</v>
+        <v>0.74905106970324364</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>0.25</v>
       </c>
       <c r="D7" s="6">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E7" s="6">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="F7" s="6">
-        <v>0.25</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G7" s="6">
         <v>0.5</v>
       </c>
       <c r="H7" s="6">
-        <v>0.25</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="I7" s="6">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J7" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L7" s="6">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M7" s="6">
-        <v>0.375</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="E8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="F8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.28282828282828282</v>
       </c>
       <c r="G8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.32323232323232326</v>
       </c>
       <c r="H8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.53030303030303028</v>
       </c>
       <c r="J8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="K8" s="6">
-        <v>1</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="L8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.16767676767676767</v>
       </c>
       <c r="M8" s="6">
-        <v>1</v>
+        <v>0.50084175084175087</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -2049,107 +2087,107 @@
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>0.78947368421052622</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
+        <v>0.61842105263157898</v>
       </c>
       <c r="J9" s="6">
-        <v>1</v>
+        <v>0.62368421052631573</v>
       </c>
       <c r="K9" s="6">
-        <v>1</v>
+        <v>0.72631578947368425</v>
       </c>
       <c r="L9" s="6">
-        <v>1</v>
+        <v>0.51140350877192986</v>
       </c>
       <c r="M9" s="6">
-        <v>1</v>
+        <v>0.59795321637426901</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.24358974358974358</v>
       </c>
       <c r="E10" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.48717948717948717</v>
       </c>
       <c r="F10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.21367521367521367</v>
       </c>
       <c r="G10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.43162393162393164</v>
       </c>
       <c r="H10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.36858974358974356</v>
       </c>
       <c r="I10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.40705128205128205</v>
       </c>
       <c r="J10" s="6">
-        <v>0</v>
+        <v>0.19487179487179485</v>
       </c>
       <c r="K10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.38547008547008543</v>
       </c>
       <c r="L10" s="6">
-        <v>0</v>
+        <v>0.31025641025641021</v>
       </c>
       <c r="M10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29985754985754981</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="6">
         <v>0.5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
       </c>
       <c r="F11" s="6">
         <v>0.5</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H11" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J11" s="6">
-        <v>0.5</v>
+        <v>0.59428571428571431</v>
       </c>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>0.69428571428571428</v>
       </c>
       <c r="L11" s="6">
-        <v>0.5</v>
+        <v>0.58952380952380956</v>
       </c>
       <c r="M11" s="6">
-        <v>1</v>
+        <v>0.63412698412698421</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2157,56 +2195,56 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" ref="C12:M12" si="0">AVERAGE(C2:C11)</f>
+        <f>AVERAGE(C2:C11)</f>
         <v>0.125</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.4154761904761905</v>
+        <f t="shared" ref="D12:M12" si="0">AVERAGE(D2:D11)</f>
+        <v>0.38206413152065327</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>0.75059523809523809</v>
+        <v>0.50863348607913816</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0.55595238095238098</v>
+        <v>0.46029198998306542</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0.65476190476190477</v>
+        <v>0.55439303894681469</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>0.55595238095238098</v>
+        <v>0.51468485080899273</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>0.64761904761904765</v>
+        <v>0.55437916012286725</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>0.52380952380952372</v>
+        <v>0.48488219865565407</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="0"/>
-        <v>0.66428571428571426</v>
+        <v>0.59308865911611908</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>0.52797619047619049</v>
+        <v>0.49388735723975996</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
-        <v>0.65178571428571419</v>
+        <v>0.54722127764175821</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6">
         <f>_xlfn.STDEV.S(C2:C11)</f>
@@ -2214,48 +2252,48 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" ref="D13:M13" si="1">_xlfn.STDEV.S(D2:D11)</f>
-        <v>0.27138041436715943</v>
+        <v>0.2924470415992052</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.23965182316578945</v>
+        <v>0.1904053018498236</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>0.27135720309298234</v>
+        <v>0.20571893732223023</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>0.26661233384509248</v>
+        <v>0.15323171243719966</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>0.27135720309298234</v>
+        <v>0.15639111689252752</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0.26579600874837433</v>
+        <v>0.13977335949123831</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>0.31904367051177446</v>
+        <v>0.18196660007094367</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="1"/>
-        <v>0.30438344556660157</v>
+        <v>0.14978610157403238</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.30663653870377006</v>
+        <v>0.18035180898975148</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="1"/>
-        <v>0.31428533850386392</v>
+        <v>0.14677791691553935</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8">
         <f>C13/SQRT(10)</f>
@@ -2263,464 +2301,464 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" ref="D14:M14" si="2">D13/SQRT(10)</f>
-        <v>8.5818022176050612E-2</v>
+        <v>9.2479874643149926E-2</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="2"/>
-        <v>7.5784560661579889E-2</v>
+        <v>6.0211443241731409E-2</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="2"/>
-        <v>8.5810682126671187E-2</v>
+        <v>6.5054039976766773E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>8.4310222724368986E-2</v>
+        <v>4.8456122106950168E-2</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="2"/>
-        <v>8.5810682126671187E-2</v>
+        <v>4.9455213519802144E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>8.4052078062690327E-2</v>
+        <v>4.4200217220582677E-2</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="2"/>
-        <v>0.10089046718775055</v>
+        <v>5.7542891430113895E-2</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="2"/>
-        <v>9.6254497004034198E-2</v>
+        <v>4.7366524281127427E-2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>9.6966987613428854E-2</v>
+        <v>5.7032249653924574E-2</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="2"/>
-        <v>9.9385750486922581E-2</v>
+        <f>M13/SQRT(10)</f>
+        <v>4.6415252766806053E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="6">
-        <v>2.1276595744680851E-2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="E18" s="1">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
+      <c r="G18" s="1">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6">
         <v>0.5</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5.6179775280898875E-3</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="6">
-        <v>4.2553191489361701E-2</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="D19" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I19" s="6">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.4</v>
+      <c r="E19" s="1">
+        <v>0.40280898876404497</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.29196217494089832</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.84523809523809523</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.69841269841269837</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.125</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G20" s="6">
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I20" s="6">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="6">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="L20" s="6">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0.14285714285714285</v>
+      <c r="D20" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.4487179487179488E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.40666666666666662</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.17651515151515151</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.38492063492063489</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.0816326530612249E-3</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="D21" s="1">
         <v>0.5</v>
       </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0.5</v>
+      <c r="E21" s="1">
+        <v>2.0408163265306124E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.18253968253968256</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.27426470588235297</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.40277777777777773</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="6">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3.0769230769230771E-2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.14084507042253522</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0.45</v>
+      <c r="D22" s="1">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.3487179487179487</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.42889280125195617</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.73368298368298368</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.41687192118226601</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.78135198135198125</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.57825077399380809</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.81923076923076932</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.71540404040404038</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E23" s="6">
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0.6</v>
+      <c r="G23" s="1">
+        <v>0.3737373737373737</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.57333333333333336</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.48296296296296293</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.46111111111111108</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>8.8495575221238937E-3</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0.375</v>
+      <c r="D24" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.47664700098328416</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.32318840579710145</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.29723502304147464</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.3239348370927318</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.26260869565217393</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.25428571428571428</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.27333333333333332</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.36789215686274507</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="6">
-        <v>5.8139534883720929E-3</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G25" s="6">
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M25" s="6">
-        <v>5.2631578947368418E-2</v>
+      <c r="E25" s="1">
+        <v>2.9069767441860465E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.510752688172043</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.44388888888888883</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.5643274853801169</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="G26" s="6">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0.2</v>
+      <c r="D26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.26219512195121952</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.39935064935064934</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.29700854700854701</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.2661904761904762</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.49861111111111112</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
-      <c r="D27" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1.9743336623889436E-3</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1.06951871657754E-2</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0.4</v>
+      <c r="D27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.871668311944718E-4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.1146761734997029</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.40384615384615385</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.25553030303030305</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.63846153846153852</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.60277777777777775</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -2728,7 +2766,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" ref="C28:M28" si="3">AVERAGE(C18:C27)</f>
@@ -2736,48 +2774,48 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="3"/>
-        <v>0.58522727272727271</v>
+        <v>0.58428030303030298</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>1.5182114431800573E-2</v>
+        <v>0.20314661277145585</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="3"/>
-        <v>0.62428571428571433</v>
+        <v>0.55976190476190468</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="3"/>
-        <v>7.2455331179559962E-2</v>
+        <v>0.30462537954432534</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="3"/>
-        <v>0.66542124542124548</v>
+        <v>0.62635478768543285</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="3"/>
-        <v>0.22814199512929095</v>
+        <v>0.4367851935320175</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>0.64606060606060611</v>
+        <v>0.56239606770041561</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>0.35037263390204565</v>
+        <v>0.40139402588009399</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="3"/>
-        <v>0.62432900432900429</v>
+        <v>0.59043589743589753</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="3"/>
-        <v>0.41204887218045122</v>
+        <v>0.53394887620119813</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6">
         <f>_xlfn.STDEV.S(C18:C27)</f>
@@ -2785,48 +2823,48 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" ref="D29:M29" si="4">_xlfn.STDEV.S(D18:D27)</f>
-        <v>0.36135494522579731</v>
+        <v>0.32319687157621668</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="4"/>
-        <v>1.2050270607487919E-2</v>
+        <v>0.21813371411341823</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>0.36485638463085129</v>
+        <v>0.24765325872745353</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>4.3472893643092425E-2</v>
+        <v>0.14513939864886838</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>0.3467892904062459</v>
+        <v>0.20047332155802705</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="4"/>
-        <v>0.14465189322706121</v>
+        <v>0.16082636691035923</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="4"/>
-        <v>0.38094818310687251</v>
+        <v>0.15163422059587045</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="4"/>
-        <v>0.22889842562865534</v>
+        <v>0.20665092253542305</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="4"/>
-        <v>0.41999809721291714</v>
+        <v>0.16451351011571158</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="4"/>
-        <v>0.26634574766978297</v>
+        <v>0.13796398796001763</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8">
         <f>C29/SQRT(10)</f>
@@ -2834,43 +2872,43 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" ref="D30" si="5">D29/SQRT(10)</f>
-        <v>0.11427046706789071</v>
+        <v>0.10220382468217785</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" ref="E30" si="6">E29/SQRT(10)</f>
-        <v>3.810630154104269E-3</v>
+        <v>6.8979937107041839E-2</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30" si="7">F29/SQRT(10)</f>
-        <v>0.11537771942879425</v>
+        <v>7.8314836754172598E-2</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" ref="G30" si="8">G29/SQRT(10)</f>
-        <v>1.3747336039042712E-2</v>
+        <v>4.589710779575891E-2</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" ref="H30" si="9">H29/SQRT(10)</f>
-        <v>0.10966440258373159</v>
+        <v>6.339523062227008E-2</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ref="I30" si="10">I29/SQRT(10)</f>
-        <v>4.5742945045299729E-2</v>
+        <v>5.0857762724667202E-2</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ref="J30" si="11">J29/SQRT(10)</f>
-        <v>0.1204663929120596</v>
+        <v>4.7950950830736506E-2</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ref="K30" si="12">K29/SQRT(10)</f>
-        <v>7.2384037781320992E-2</v>
+        <v>6.5348759578695459E-2</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ref="L30" si="13">L29/SQRT(10)</f>
-        <v>0.1328150600129635</v>
+        <v>5.202373978347994E-2</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" ref="M30" si="14">M29/SQRT(10)</f>
-        <v>8.4225920773699878E-2</v>
+        <v>4.3628043703370298E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2883,12 +2921,13 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
@@ -2902,298 +2941,298 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D2" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="D2" s="9">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I2" s="9">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
+      <c r="G3" s="9">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G4" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
+      <c r="H4" s="9">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.33333333333333331</v>
+      <c r="F5" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
+      <c r="F6" s="9">
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
+      <c r="E7" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
+      <c r="D8" s="9">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.52020202020202022</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.41477272727272729</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.5</v>
+      <c r="H9" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="4">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="D10" s="9">
         <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.75</v>
+      <c r="D11" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.52083333333333326</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -3201,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" ref="C12:I12" si="0">AVERAGE(C2:C11)</f>
@@ -3209,33 +3248,33 @@
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.66174242424242424</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>0.75000000000000011</v>
+        <v>0.53863636363636369</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.7177609427609426</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0.35833333333333328</v>
+        <v>0.4164478114478114</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.71856060606060612</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>0.42499999999999999</v>
+        <v>0.45794191919191912</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6">
         <f>_xlfn.STDEV.S(C2:C11)</f>
@@ -3243,33 +3282,33 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" ref="D13:I13" si="1">_xlfn.STDEV.S(D2:D11)</f>
-        <v>0.33621440102528355</v>
+        <v>0.23202144705320643</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.34246744460938727</v>
+        <v>0.30810564562903214</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>0.25834826719080922</v>
+        <v>0.2082981582158735</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>0.42682071871680033</v>
+        <v>0.2776439275514308</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>0.31044074602107807</v>
+        <v>0.14385962702058258</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0.38580123456592597</v>
+        <v>0.20265929398624408</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8">
         <f>C13/SQRT(10)</f>
@@ -3277,326 +3316,326 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" ref="D14:I14" si="2">D13/SQRT(10)</f>
-        <v>0.10632032893891467</v>
+        <v>7.3371623869629504E-2</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="2"/>
-        <v>0.10829771494232172</v>
+        <v>9.7431560014444349E-2</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="2"/>
-        <v>8.1696895388070748E-2</v>
+        <v>6.5869661238027524E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>0.13497256236951494</v>
+        <v>8.7798718957729754E-2</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="2"/>
-        <v>9.8169983594846078E-2</v>
+        <v>4.5492408472734364E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>0.12200106253332084</v>
+        <v>6.4086495799819565E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6">
         <v>0.625</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2.9268292682926829E-3</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
+      <c r="D18">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E18">
+        <v>1.4634146341463415E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G18">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H18">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="4">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6">
         <v>0.8</v>
       </c>
-      <c r="D19" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>7.26920281075842E-4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
+      <c r="D19">
+        <v>0.65</v>
+      </c>
+      <c r="E19">
+        <v>3.63460140537921E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.83974358974358976</v>
+      </c>
+      <c r="G19">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="H19">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
         <v>0.4</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="6">
-        <v>7.7299665034784846E-4</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
+      <c r="D20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>0.5003864983251739</v>
+      </c>
+      <c r="F20">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G20">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H20">
+        <v>0.43154761904761901</v>
+      </c>
+      <c r="I20">
+        <v>0.29444444444444445</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6">
         <v>0.2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="6">
-        <v>3.2133676092544985E-4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
+      <c r="E21">
+        <v>0.50016066838046269</v>
+      </c>
+      <c r="F21">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I21">
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
+      <c r="G22">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H22">
+        <v>0.625</v>
+      </c>
+      <c r="I22">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6">
         <v>0.2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="6">
-        <v>3.0376670716889426E-4</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="E23">
+        <v>0.5001518833535844</v>
+      </c>
+      <c r="F23">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G23">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="4">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6">
         <v>0.5</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9.3896713615023472E-4</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
+      <c r="D24">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="E24">
+        <v>0.37546948356807514</v>
+      </c>
+      <c r="F24">
+        <v>0.74242424242424254</v>
+      </c>
+      <c r="G24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H24">
+        <v>0.5625</v>
+      </c>
+      <c r="I24">
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6">
         <v>0.22222222222222221</v>
       </c>
-      <c r="D25" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5.4303556882975834E-4</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
+      <c r="D25">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E25">
+        <v>0.50027151778441492</v>
+      </c>
+      <c r="F25">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="G25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I25">
+        <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="4">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E26">
+        <v>1.9443904335990667E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="G26">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E26" s="6">
-        <v>3.8887808671981335E-4</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.25</v>
+      <c r="I26">
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6">
         <v>0.5</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.3790642347343376E-3</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
+      <c r="D27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E27">
+        <v>0.50118953211736716</v>
+      </c>
+      <c r="F27">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="G27">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="H27">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="I27">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -3604,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" ref="C28:I28" si="3">AVERAGE(C18:C27)</f>
@@ -3612,33 +3651,33 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="3"/>
-        <v>0.73000000000000009</v>
+        <v>0.72257575757575754</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>9.3017946942448621E-4</v>
+        <v>0.28796508973471224</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="3"/>
-        <v>0.83333333333333326</v>
+        <v>0.7213120213120211</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="3"/>
-        <v>0.29166666666666663</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="3"/>
-        <v>0.76333333333333331</v>
+        <v>0.5825297619047618</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="3"/>
-        <v>0.55833333333333335</v>
+        <v>0.44753968253968257</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6">
         <f>_xlfn.STDEV.S(C18:C27)</f>
@@ -3646,33 +3685,33 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" ref="D29:I29" si="4">_xlfn.STDEV.S(D18:D27)</f>
-        <v>0.31523066216719819</v>
+        <v>0.2407109597552872</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="4"/>
-        <v>9.5586954399579376E-4</v>
+        <v>0.25031147318164326</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>0.23570226039551626</v>
+        <v>0.21957457707739497</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>0.36151686605806438</v>
+        <v>0.18199479795170365</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>0.36122220513346293</v>
+        <v>8.9773365170530556E-2</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="4"/>
-        <v>0.47798767998999941</v>
+        <v>0.20574605327824233</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8">
         <f>C29/SQRT(10)</f>
@@ -3680,30 +3719,31 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" ref="D30" si="5">D29/SQRT(10)</f>
-        <v>9.9684688077141634E-2</v>
+        <v>7.6119489059183448E-2</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" ref="E30" si="6">E29/SQRT(10)</f>
-        <v>3.0227249050132345E-4</v>
+        <v>7.9155437972614678E-2</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30" si="7">F29/SQRT(10)</f>
-        <v>7.4535599249993117E-2</v>
+        <v>6.9435577983276597E-2</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" ref="G30" si="8">G29/SQRT(10)</f>
-        <v>0.11432167093095011</v>
+        <v>5.7551808382953033E-2</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" ref="H30" si="9">H29/SQRT(10)</f>
-        <v>0.11422849096503095</v>
+        <v>2.8388830715690684E-2</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ref="I30" si="10">I29/SQRT(10)</f>
-        <v>0.15115297622680873</v>
+        <v>6.506261479495988E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MS_Publish_Results.xlsx
+++ b/MS_Publish_Results.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swahlig\Documents\UCSF Radiology\Research\MS Project\MS Paper\Frontier Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF7120-E327-4524-9C11-BCCEC6C79C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3DDD62-E840-4C06-B9E6-A47CAE0E3A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{306C50EA-272A-423A-9676-647A0F5285A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{306C50EA-272A-423A-9676-647A0F5285A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Time-Point FLAIR" sheetId="1" r:id="rId1"/>
     <sheet name="New FLAIR" sheetId="2" r:id="rId2"/>
     <sheet name="Enhancement" sheetId="3" r:id="rId3"/>
+    <sheet name="Shallow Alternate Architecture" sheetId="4" r:id="rId4"/>
+    <sheet name="Deeper Alternate Architecture" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="19">
   <si>
     <t>FineTune10</t>
   </si>
@@ -103,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +121,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +266,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,11 +448,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,10 +626,70 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91572F47-507D-4706-804B-23A5119E7771}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +1016,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -558,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -569,28 +1071,28 @@
         <v>0.36734693877551022</v>
       </c>
       <c r="E2" s="6">
-        <v>0.57936507936507931</v>
+        <v>0.59024062184174542</v>
       </c>
       <c r="F2" s="6">
-        <v>0.42063492063492058</v>
+        <v>0.52345282682361327</v>
       </c>
       <c r="G2" s="6">
-        <v>0.66109221466364332</v>
+        <v>0.60883415996444368</v>
       </c>
       <c r="H2" s="6">
-        <v>0.50907029478458055</v>
+        <v>0.51816889885375705</v>
       </c>
       <c r="I2" s="6">
-        <v>0.6025264974903819</v>
+        <v>0.63625223289482247</v>
       </c>
       <c r="J2" s="6">
-        <v>0.52758589390812505</v>
+        <v>0.53294086048901457</v>
       </c>
       <c r="K2" s="6">
-        <v>0.58527138695678027</v>
+        <v>0.6424880605592217</v>
       </c>
       <c r="L2" s="6">
-        <v>0.54287519002607287</v>
+        <v>0.58334837264077499</v>
       </c>
       <c r="M2" s="6">
         <v>0.64902502823851138</v>
@@ -598,8 +1100,20 @@
       <c r="N2" s="6">
         <v>0.61915342499879689</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -607,31 +1121,31 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="D3" s="6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E3" s="6">
-        <v>0.50674157303370793</v>
+        <v>0.52948607010196691</v>
       </c>
       <c r="F3" s="6">
-        <v>0.4951310861423221</v>
+        <v>0.46954594895710167</v>
       </c>
       <c r="G3" s="6">
-        <v>0.44120929085556632</v>
+        <v>0.59229776712090487</v>
       </c>
       <c r="H3" s="6">
-        <v>0.34562969128096049</v>
+        <v>0.46249738532301987</v>
       </c>
       <c r="I3" s="6">
-        <v>0.49319666554373176</v>
+        <v>0.56490888814026563</v>
       </c>
       <c r="J3" s="6">
-        <v>0.48376747980368462</v>
+        <v>0.54936350505430831</v>
       </c>
       <c r="K3" s="6">
-        <v>0.61363797898129979</v>
+        <v>0.59006868618812025</v>
       </c>
       <c r="L3" s="6">
-        <v>0.5759278415208503</v>
+        <v>0.54938431237848639</v>
       </c>
       <c r="M3" s="6">
         <v>0.54996664222631764</v>
@@ -639,8 +1153,20 @@
       <c r="N3" s="6">
         <v>0.58058412434192708</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -648,31 +1174,31 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="D4" s="6">
-        <v>0.2608695652173913</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="6">
-        <v>0.44999999999999996</v>
+        <v>0.50683760683760681</v>
       </c>
       <c r="F4" s="6">
-        <v>0.35</v>
+        <v>0.50341880341880352</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41851851851851851</v>
+        <v>0.49487179487179489</v>
       </c>
       <c r="H4" s="6">
-        <v>0.36296296296296293</v>
+        <v>0.45427350427350427</v>
       </c>
       <c r="I4" s="6">
-        <v>0.56965811965811963</v>
+        <v>0.52720797720797719</v>
       </c>
       <c r="J4" s="6">
-        <v>0.58354700854700858</v>
+        <v>0.53361823361823368</v>
       </c>
       <c r="K4" s="6">
-        <v>0.56136752136752133</v>
+        <v>0.54188034188034184</v>
       </c>
       <c r="L4" s="6">
-        <v>0.47726495726495727</v>
+        <v>0.49031339031339033</v>
       </c>
       <c r="M4" s="6">
         <v>0.53675213675213684</v>
@@ -680,8 +1206,20 @@
       <c r="N4" s="6">
         <v>0.58276353276353277</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -692,28 +1230,28 @@
         <v>0.20689655172413793</v>
       </c>
       <c r="E5" s="6">
-        <v>0.47430696416497636</v>
+        <v>0.52427831280150849</v>
       </c>
       <c r="F5" s="6">
-        <v>0.36257606490872207</v>
+        <v>0.41880015227852696</v>
       </c>
       <c r="G5" s="6">
-        <v>0.55010551765115656</v>
+        <v>0.60563562735911092</v>
       </c>
       <c r="H5" s="6">
-        <v>0.40032167516954537</v>
+        <v>0.45710408409158659</v>
       </c>
       <c r="I5" s="6">
-        <v>0.53545878863224927</v>
+        <v>0.57117335760272359</v>
       </c>
       <c r="J5" s="6">
-        <v>0.43396629053077396</v>
+        <v>0.4639989173948475</v>
       </c>
       <c r="K5" s="6">
-        <v>0.58869748324043947</v>
+        <v>0.5788165301513466</v>
       </c>
       <c r="L5" s="6">
-        <v>0.49216043177307328</v>
+        <v>0.49836898726187479</v>
       </c>
       <c r="M5" s="6">
         <v>0.63202806049105864</v>
@@ -721,8 +1259,20 @@
       <c r="N5" s="6">
         <v>0.54350281589697935</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -733,28 +1283,28 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="E6" s="6">
-        <v>0.63869463869463872</v>
+        <v>0.5259493592826926</v>
       </c>
       <c r="F6" s="6">
-        <v>0.52913752913752909</v>
+        <v>0.50089416756083416</v>
       </c>
       <c r="G6" s="6">
-        <v>0.60256410256410253</v>
+        <v>0.54907746574413252</v>
       </c>
       <c r="H6" s="6">
-        <v>0.49222999222999225</v>
+        <v>0.41498624831958164</v>
       </c>
       <c r="I6" s="6">
-        <v>0.70313020313020314</v>
+        <v>0.63343600843600845</v>
       </c>
       <c r="J6" s="6">
-        <v>0.56039793539793537</v>
+        <v>0.48338698338698344</v>
       </c>
       <c r="K6" s="6">
-        <v>0.6417582417582417</v>
+        <v>0.57051282051282048</v>
       </c>
       <c r="L6" s="6">
-        <v>0.70986050986050986</v>
+        <v>0.63321709155042483</v>
       </c>
       <c r="M6" s="6">
         <v>0.59723424723424734</v>
@@ -762,8 +1312,20 @@
       <c r="N6" s="6">
         <v>0.57581307581307584</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -771,31 +1333,31 @@
         <v>0.39130434782608697</v>
       </c>
       <c r="D7" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E7" s="6">
-        <v>0.6908212560386473</v>
+        <v>0.5871795227957719</v>
       </c>
       <c r="F7" s="6">
-        <v>0.55893719806763287</v>
+        <v>0.52520969556249586</v>
       </c>
       <c r="G7" s="6">
-        <v>0.51489533011272137</v>
+        <v>0.6327856392290806</v>
       </c>
       <c r="H7" s="6">
-        <v>0.39090177133655396</v>
+        <v>0.48153341189910831</v>
       </c>
       <c r="I7" s="6">
-        <v>0.54414466873706013</v>
+        <v>0.60909079610719263</v>
       </c>
       <c r="J7" s="6">
-        <v>0.48649930986887513</v>
+        <v>0.53421987889563416</v>
       </c>
       <c r="K7" s="6">
-        <v>0.6800983436853002</v>
+        <v>0.69104240504848458</v>
       </c>
       <c r="L7" s="6">
-        <v>0.62108523119392678</v>
+        <v>0.6107913649779898</v>
       </c>
       <c r="M7" s="6">
         <v>0.73505918751681465</v>
@@ -803,8 +1365,20 @@
       <c r="N7" s="6">
         <v>0.69612098544486167</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -812,31 +1386,31 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="D8" s="6">
-        <v>0.56666666666666665</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E8" s="6">
-        <v>0.75</v>
+        <v>0.58004107358269119</v>
       </c>
       <c r="F8" s="6">
-        <v>0.4375</v>
+        <v>0.46380715555242841</v>
       </c>
       <c r="G8" s="6">
-        <v>0.64869281045751637</v>
+        <v>0.61427654546832688</v>
       </c>
       <c r="H8" s="6">
-        <v>0.65441176470588236</v>
+        <v>0.54125757510867467</v>
       </c>
       <c r="I8" s="6">
-        <v>0.71878501400560224</v>
+        <v>0.64846558268981658</v>
       </c>
       <c r="J8" s="6">
-        <v>0.67622549019607847</v>
+        <v>0.60277063986618795</v>
       </c>
       <c r="K8" s="6">
-        <v>0.7339832350850789</v>
+        <v>0.68888846826195593</v>
       </c>
       <c r="L8" s="6">
-        <v>0.58913666959321032</v>
+        <v>0.58037811896995173</v>
       </c>
       <c r="M8" s="6">
         <v>0.62385471698690398</v>
@@ -844,8 +1418,20 @@
       <c r="N8" s="6">
         <v>0.65907152510318545</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -853,31 +1439,31 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="D9" s="6">
-        <v>0.53846153846153844</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="E9" s="6">
-        <v>0.4555555555555556</v>
+        <v>0.4267462643224838</v>
       </c>
       <c r="F9" s="6">
-        <v>0.40555555555555556</v>
+        <v>0.39755065220004243</v>
       </c>
       <c r="G9" s="6">
-        <v>0.49458689458689459</v>
+        <v>0.51509173338441638</v>
       </c>
       <c r="H9" s="6">
-        <v>0.36353276353276359</v>
+        <v>0.39990525234427676</v>
       </c>
       <c r="I9" s="6">
-        <v>0.48348023504273502</v>
+        <v>0.50272006880238596</v>
       </c>
       <c r="J9" s="6">
-        <v>0.46184561965811965</v>
+        <v>0.46170942870637993</v>
       </c>
       <c r="K9" s="6">
-        <v>0.52052584948926417</v>
+        <v>0.53287064034015252</v>
       </c>
       <c r="L9" s="6">
-        <v>0.46910204294350633</v>
+        <v>0.48551296371418323</v>
       </c>
       <c r="M9" s="6">
         <v>0.51237837274422637</v>
@@ -885,8 +1471,20 @@
       <c r="N9" s="6">
         <v>0.56608102004443472</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>9</v>
       </c>
@@ -894,31 +1492,31 @@
         <v>0.86956521739130432</v>
       </c>
       <c r="D10" s="6">
-        <v>0.34883720930232559</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="E10" s="6">
-        <v>0.5635451505016722</v>
+        <v>0.61384044699262086</v>
       </c>
       <c r="F10" s="6">
-        <v>0.46878483835005574</v>
+        <v>0.57669812071985993</v>
       </c>
       <c r="G10" s="6">
-        <v>0.61394463024897805</v>
+        <v>0.64268660083877471</v>
       </c>
       <c r="H10" s="6">
-        <v>0.51384243775548122</v>
+        <v>0.57805217125869301</v>
       </c>
       <c r="I10" s="6">
-        <v>0.68772644927536231</v>
+        <v>0.67455572808833664</v>
       </c>
       <c r="J10" s="6">
-        <v>0.51804626532887399</v>
+        <v>0.55399512926686845</v>
       </c>
       <c r="K10" s="6">
-        <v>0.70173395445134579</v>
+        <v>0.7035282953761216</v>
       </c>
       <c r="L10" s="6">
-        <v>0.63398033126293996</v>
+        <v>0.61790027605245001</v>
       </c>
       <c r="M10" s="6">
         <v>0.74553830227743279</v>
@@ -926,8 +1524,20 @@
       <c r="N10" s="6">
         <v>0.71821846631629249</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>10</v>
       </c>
@@ -935,31 +1545,31 @@
         <v>0.84444444444444444</v>
       </c>
       <c r="D11" s="6">
-        <v>0.4</v>
+        <v>0.34883720930232559</v>
       </c>
       <c r="E11" s="6">
-        <v>0.64376321353065546</v>
+        <v>0.6466250292558432</v>
       </c>
       <c r="F11" s="6">
-        <v>0.47251585623678649</v>
+        <v>0.52273091626289303</v>
       </c>
       <c r="G11" s="6">
-        <v>0.59043144624539978</v>
+        <v>0.6052737206806974</v>
       </c>
       <c r="H11" s="6">
-        <v>0.57593767128650841</v>
+        <v>0.55130445835387687</v>
       </c>
       <c r="I11" s="6">
-        <v>0.74813474639056032</v>
+        <v>0.66294300553021479</v>
       </c>
       <c r="J11" s="6">
-        <v>0.68724679713051806</v>
+        <v>0.61689469015050413</v>
       </c>
       <c r="K11" s="6">
-        <v>0.68956041374646027</v>
+        <v>0.65275867812205024</v>
       </c>
       <c r="L11" s="6">
-        <v>0.62542769891607097</v>
+        <v>0.56806474909672577</v>
       </c>
       <c r="M11" s="6">
         <v>0.68130619380619384</v>
@@ -967,8 +1577,20 @@
       <c r="N11" s="6">
         <v>0.6453086211807143</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,39 +1603,39 @@
       </c>
       <c r="D12" s="7">
         <f>AVERAGE(D2:D11)</f>
-        <v>0.37608733419424417</v>
+        <v>0.37608733419424423</v>
       </c>
       <c r="E12" s="7">
         <f>AVERAGE(E2:E11)</f>
-        <v>0.57527934308849316</v>
+        <v>0.55312243078149315</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" ref="F12" si="1">AVERAGE(F2:F11)</f>
-        <v>0.45007730490335246</v>
+        <v>0.49021084393365993</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(G2:G11)</f>
-        <v>0.55360407559044966</v>
+        <v>0.58608310546616837</v>
       </c>
       <c r="H12" s="7">
         <f>AVERAGE(H2:H11)</f>
-        <v>0.46088410250452316</v>
+        <v>0.4859082989826079</v>
       </c>
       <c r="I12" s="7">
         <f>AVERAGE(I2:I11)</f>
-        <v>0.60862413879060051</v>
+        <v>0.60307536454997446</v>
       </c>
       <c r="J12" s="7">
         <f>AVERAGE(J2:J11)</f>
-        <v>0.54191280903699934</v>
+        <v>0.53328982668289626</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ref="K12" si="2">AVERAGE(K2:K11)</f>
-        <v>0.63166344087617321</v>
+        <v>0.61928549264406152</v>
       </c>
       <c r="L12" s="7">
         <f>AVERAGE(L2:L11)</f>
-        <v>0.57368209043551166</v>
+        <v>0.56172796269562508</v>
       </c>
       <c r="M12" s="7">
         <f>AVERAGE(M2:M11)</f>
@@ -1023,8 +1645,20 @@
         <f>AVERAGE(N2:N11)</f>
         <v>0.61866175919038002</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1034,39 +1668,39 @@
       </c>
       <c r="D13" s="6">
         <f>_xlfn.STDEV.S(D2:D11)</f>
-        <v>0.13547338189033784</v>
+        <v>0.13547338189033764</v>
       </c>
       <c r="E13" s="6">
         <f>_xlfn.STDEV.S(E2:E11)</f>
-        <v>0.10417117999789489</v>
+        <v>6.3187489309962361E-2</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ref="F13" si="3">_xlfn.STDEV.S(F2:F11)</f>
-        <v>6.8038764853880204E-2</v>
+        <v>5.3712948416941346E-2</v>
       </c>
       <c r="G13" s="6">
         <f>_xlfn.STDEV.S(G2:G11)</f>
-        <v>8.4237903483665402E-2</v>
+        <v>4.9682839865614385E-2</v>
       </c>
       <c r="H13" s="6">
         <f>_xlfn.STDEV.S(H2:H11)</f>
-        <v>0.1041975075858283</v>
+        <v>5.9344151053868623E-2</v>
       </c>
       <c r="I13" s="6">
         <f>_xlfn.STDEV.S(I2:I11)</f>
-        <v>9.8227627029197795E-2</v>
+        <v>5.879717607877407E-2</v>
       </c>
       <c r="J13" s="6">
         <f>_xlfn.STDEV.S(J2:J11)</f>
-        <v>8.5975826163690733E-2</v>
+        <v>5.2621078546556531E-2</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" ref="K13" si="4">_xlfn.STDEV.S(K2:K11)</f>
-        <v>6.8956842718996783E-2</v>
+        <v>6.4185934876504869E-2</v>
       </c>
       <c r="L13" s="6">
         <f>_xlfn.STDEV.S(L2:L11)</f>
-        <v>7.8299346368642497E-2</v>
+        <v>5.4369272145198551E-2</v>
       </c>
       <c r="M13" s="6">
         <f>_xlfn.STDEV.S(M2:M11)</f>
@@ -1077,7 +1711,7 @@
         <v>5.8918885225134214E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1087,39 +1721,39 @@
       </c>
       <c r="D14" s="8">
         <f>D13/SQRT(10)</f>
-        <v>4.2840444909927479E-2</v>
+        <v>4.2840444909927416E-2</v>
       </c>
       <c r="E14" s="8">
         <f>E13/SQRT(10)</f>
-        <v>3.2941819534072214E-2</v>
+        <v>1.9981638584702224E-2</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14" si="5">F13/SQRT(10)</f>
-        <v>2.1515746612287483E-2</v>
+        <v>1.6985525684067013E-2</v>
       </c>
       <c r="G14" s="8">
         <f>G13/SQRT(10)</f>
-        <v>2.6638364032581519E-2</v>
+        <v>1.5711093460075532E-2</v>
       </c>
       <c r="H14" s="8">
         <f>H13/SQRT(10)</f>
-        <v>3.2950145048389001E-2</v>
+        <v>1.8766268313930651E-2</v>
       </c>
       <c r="I14" s="8">
         <f>I13/SQRT(10)</f>
-        <v>3.1062303056578384E-2</v>
+        <v>1.8593299639489386E-2</v>
       </c>
       <c r="J14" s="8">
         <f>J13/SQRT(10)</f>
-        <v>2.7187943439195925E-2</v>
+        <v>1.6640246114174129E-2</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14" si="6">K13/SQRT(10)</f>
-        <v>2.1806068324602808E-2</v>
+        <v>2.0297374795699378E-2</v>
       </c>
       <c r="L14" s="8">
         <f>L13/SQRT(10)</f>
-        <v>2.4760427382734426E-2</v>
+        <v>1.719307347043763E-2</v>
       </c>
       <c r="M14" s="8">
         <f>M13/SQRT(10)</f>
@@ -1130,7 +1764,7 @@
         <v>1.8631787450946669E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1173,8 +1807,20 @@
       <c r="N17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>1</v>
       </c>
@@ -1185,28 +1831,28 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E18" s="6">
-        <v>0.81019387116948094</v>
+        <v>0.70514379893391455</v>
       </c>
       <c r="F18" s="6">
-        <v>0.58143939393939392</v>
+        <v>0.3757922452714379</v>
       </c>
       <c r="G18" s="6">
-        <v>0.73955850146326341</v>
+        <v>0.72684624419568389</v>
       </c>
       <c r="H18" s="6">
-        <v>0.60645672410378293</v>
+        <v>0.56910137792490734</v>
       </c>
       <c r="I18" s="6">
-        <v>0.77385251809593913</v>
+        <v>0.76775353058247797</v>
       </c>
       <c r="J18" s="6">
-        <v>0.7222128748619876</v>
+        <v>0.57762909606183788</v>
       </c>
       <c r="K18" s="6">
-        <v>0.69232642688463153</v>
+        <v>0.70438966946268311</v>
       </c>
       <c r="L18" s="6">
-        <v>0.65616015132408578</v>
+        <v>0.62318901499229373</v>
       </c>
       <c r="M18" s="6">
         <v>0.65783522895324142</v>
@@ -1214,8 +1860,20 @@
       <c r="N18" s="6">
         <v>0.57493630887915492</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>2</v>
       </c>
@@ -1226,28 +1884,28 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E19" s="6">
-        <v>0.69418386491557227</v>
+        <v>0.7198025100464126</v>
       </c>
       <c r="F19" s="6">
-        <v>0.52822580645161288</v>
+        <v>0.33011484761168502</v>
       </c>
       <c r="G19" s="6">
-        <v>0.82987012987012987</v>
+        <v>0.73495570476994621</v>
       </c>
       <c r="H19" s="6">
-        <v>0.64102564102564108</v>
+        <v>0.53444656792482881</v>
       </c>
       <c r="I19" s="6">
-        <v>0.85707096473119304</v>
+        <v>0.73629905807254359</v>
       </c>
       <c r="J19" s="6">
-        <v>0.73053390757451464</v>
+        <v>0.60146704949412089</v>
       </c>
       <c r="K19" s="6">
-        <v>0.72472868217054254</v>
+        <v>0.73272844726333097</v>
       </c>
       <c r="L19" s="6">
-        <v>0.60694535876012723</v>
+        <v>0.60995446563343936</v>
       </c>
       <c r="M19" s="6">
         <v>0.76374077219147629</v>
@@ -1255,8 +1913,20 @@
       <c r="N19" s="6">
         <v>0.68605348905009345</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>3</v>
       </c>
@@ -1267,28 +1937,28 @@
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>0.25563909774436089</v>
+        <v>0.58730158730158732</v>
       </c>
       <c r="F20" s="6">
-        <v>7.6086956521739135E-2</v>
+        <v>0.27844753830598118</v>
       </c>
       <c r="G20" s="6">
-        <v>0.3516339869281046</v>
+        <v>0.54199346405228754</v>
       </c>
       <c r="H20" s="6">
-        <v>0.29258098223615464</v>
+        <v>0.4643613091888954</v>
       </c>
       <c r="I20" s="6">
-        <v>0.49732905982905984</v>
+        <v>0.57902745402745404</v>
       </c>
       <c r="J20" s="6">
-        <v>0.39473981900452493</v>
+        <v>0.4607608894373601</v>
       </c>
       <c r="K20" s="6">
-        <v>0.49411027568922306</v>
+        <v>0.53297068428647376</v>
       </c>
       <c r="L20" s="6">
-        <v>0.46195652173913038</v>
+        <v>0.55163043478260865</v>
       </c>
       <c r="M20" s="6">
         <v>0.55645933014354065</v>
@@ -1296,8 +1966,20 @@
       <c r="N20" s="6">
         <v>0.4645736208236208</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>4</v>
       </c>
@@ -1308,28 +1990,28 @@
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <v>0.88690476190476186</v>
+        <v>0.64834556405217791</v>
       </c>
       <c r="F21" s="6">
-        <v>0.63958916900093365</v>
+        <v>0.41149725678959631</v>
       </c>
       <c r="G21" s="6">
-        <v>0.9506172839506174</v>
+        <v>0.84480359147025819</v>
       </c>
       <c r="H21" s="6">
-        <v>0.79522946859903387</v>
+        <v>0.66499441344390198</v>
       </c>
       <c r="I21" s="6">
-        <v>0.79903017241379315</v>
+        <v>0.74406199383330407</v>
       </c>
       <c r="J21" s="6">
-        <v>0.67781803542673114</v>
+        <v>0.57271202361782081</v>
       </c>
       <c r="K21" s="6">
-        <v>0.84744950738916247</v>
+        <v>0.831207922824302</v>
       </c>
       <c r="L21" s="6">
-        <v>0.73450336700336705</v>
+        <v>0.66977844686178012</v>
       </c>
       <c r="M21" s="6">
         <v>0.7497077014318394</v>
@@ -1337,8 +2019,20 @@
       <c r="N21" s="6">
         <v>0.64749280933491471</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P21" s="12"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>5</v>
       </c>
@@ -1349,28 +2043,28 @@
         <v>0.91304347826086951</v>
       </c>
       <c r="E22" s="6">
-        <v>0.76767676767676774</v>
+        <v>0.65668590668590665</v>
       </c>
       <c r="F22" s="6">
-        <v>0.40930232558139534</v>
+        <v>0.31620602951449056</v>
       </c>
       <c r="G22" s="6">
-        <v>0.5320635257498586</v>
+        <v>0.57499640933957574</v>
       </c>
       <c r="H22" s="6">
-        <v>0.46081977094635324</v>
+        <v>0.40017693759316991</v>
       </c>
       <c r="I22" s="6">
-        <v>0.59809027777777779</v>
+        <v>0.66009048821548821</v>
       </c>
       <c r="J22" s="6">
-        <v>0.40143896268184687</v>
+        <v>0.40230089772185046</v>
       </c>
       <c r="K22" s="6">
-        <v>0.65840559440559443</v>
+        <v>0.65978243978243978</v>
       </c>
       <c r="L22" s="6">
-        <v>0.47998619737750181</v>
+        <v>0.47290516448125147</v>
       </c>
       <c r="M22" s="6">
         <v>0.56797222222222232</v>
@@ -1378,8 +2072,20 @@
       <c r="N22" s="6">
         <v>0.50384656196943978</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P22" s="12"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>6</v>
       </c>
@@ -1390,28 +2096,28 @@
         <v>1</v>
       </c>
       <c r="E23" s="6">
-        <v>0.76941457586618878</v>
+        <v>0.77384416108241805</v>
       </c>
       <c r="F23" s="6">
-        <v>0.48389610389610394</v>
+        <v>0.36885175997535552</v>
       </c>
       <c r="G23" s="6">
-        <v>0.58518518518518514</v>
+        <v>0.65949652199652198</v>
       </c>
       <c r="H23" s="6">
-        <v>0.49722222222222223</v>
+        <v>0.52420254171320269</v>
       </c>
       <c r="I23" s="6">
-        <v>0.75859903381642524</v>
+        <v>0.80202898550724644</v>
       </c>
       <c r="J23" s="6">
-        <v>0.65413015254787399</v>
+        <v>0.54850065283795735</v>
       </c>
       <c r="K23" s="6">
-        <v>0.72769882265345065</v>
+        <v>0.75607554949012046</v>
       </c>
       <c r="L23" s="6">
-        <v>0.67522539288668315</v>
+        <v>0.66453967925742119</v>
       </c>
       <c r="M23" s="6">
         <v>0.81743989948345663</v>
@@ -1419,8 +2125,20 @@
       <c r="N23" s="6">
         <v>0.7007032476898285</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>7</v>
       </c>
@@ -1431,28 +2149,28 @@
         <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>0.24789915966386555</v>
+        <v>0.61513426049905984</v>
       </c>
       <c r="F24" s="6">
-        <v>9.0659340659340656E-2</v>
+        <v>0.28358513080351438</v>
       </c>
       <c r="G24" s="6">
-        <v>0.42962962962962958</v>
+        <v>0.62864240547167372</v>
       </c>
       <c r="H24" s="6">
-        <v>0.20926541159099299</v>
+        <v>0.46172265288544362</v>
       </c>
       <c r="I24" s="6">
-        <v>0.51597222222222228</v>
+        <v>0.63082130832130845</v>
       </c>
       <c r="J24" s="6">
-        <v>0.52812608847091602</v>
+        <v>0.59821981166878269</v>
       </c>
       <c r="K24" s="6">
-        <v>0.59187584373724589</v>
+        <v>0.65989653644770485</v>
       </c>
       <c r="L24" s="6">
-        <v>0.49919720328375117</v>
+        <v>0.5238408066580279</v>
       </c>
       <c r="M24" s="6">
         <v>0.71801166869660027</v>
@@ -1460,8 +2178,20 @@
       <c r="N24" s="6">
         <v>0.55794391463321846</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P24" s="12"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>8</v>
       </c>
@@ -1472,28 +2202,28 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="E25" s="6">
-        <v>0.5444444444444444</v>
+        <v>0.65787037037037044</v>
       </c>
       <c r="F25" s="6">
-        <v>0.26984126984126983</v>
+        <v>0.24758105664349908</v>
       </c>
       <c r="G25" s="6">
-        <v>0.68091168091168086</v>
+        <v>0.71467743933382077</v>
       </c>
       <c r="H25" s="6">
-        <v>0.33389295889295889</v>
+        <v>0.43717533684638948</v>
       </c>
       <c r="I25" s="6">
-        <v>0.6782915360501568</v>
+        <v>0.71330546847788234</v>
       </c>
       <c r="J25" s="6">
-        <v>0.43260416666666662</v>
+        <v>0.42408653846153843</v>
       </c>
       <c r="K25" s="6">
-        <v>0.68137022397891955</v>
+        <v>0.71447518664909959</v>
       </c>
       <c r="L25" s="6">
-        <v>0.51292727943890737</v>
+        <v>0.51493939953242285</v>
       </c>
       <c r="M25" s="6">
         <v>0.67148148148148146</v>
@@ -1501,8 +2231,20 @@
       <c r="N25" s="6">
         <v>0.58774232780102187</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P25" s="12"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>9</v>
       </c>
@@ -1513,28 +2255,28 @@
         <v>0.95454545454545459</v>
       </c>
       <c r="E26" s="6">
-        <v>0.44792399718508091</v>
+        <v>0.59861401219749399</v>
       </c>
       <c r="F26" s="6">
-        <v>0.21092436974789916</v>
+        <v>0.23100587457205102</v>
       </c>
       <c r="G26" s="6">
-        <v>0.69658303464755067</v>
+        <v>0.71495818399044209</v>
       </c>
       <c r="H26" s="6">
-        <v>0.43247863247863244</v>
+        <v>0.4081866676050927</v>
       </c>
       <c r="I26" s="6">
-        <v>0.75148689187426632</v>
+        <v>0.73632597484509399</v>
       </c>
       <c r="J26" s="6">
-        <v>0.39483946155457783</v>
+        <v>0.39138621364073561</v>
       </c>
       <c r="K26" s="6">
-        <v>0.70469187675070022</v>
+        <v>0.74298093554361644</v>
       </c>
       <c r="L26" s="6">
-        <v>0.35055404949021973</v>
+        <v>0.40238478483159335</v>
       </c>
       <c r="M26" s="6">
         <v>0.7698351648351649</v>
@@ -1542,8 +2284,20 @@
       <c r="N26" s="6">
         <v>0.51417236979516889</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P26" s="12"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>10</v>
       </c>
@@ -1554,28 +2308,28 @@
         <v>0.9375</v>
       </c>
       <c r="E27" s="6">
-        <v>0.60783945986496635</v>
+        <v>0.64773901508085063</v>
       </c>
       <c r="F27" s="6">
-        <v>0.38135593220338981</v>
+        <v>0.33218967556792722</v>
       </c>
       <c r="G27" s="6">
-        <v>0.67356305092154145</v>
+        <v>0.64025939357278527</v>
       </c>
       <c r="H27" s="6">
-        <v>0.48554430643982888</v>
+        <v>0.40741415966519962</v>
       </c>
       <c r="I27" s="6">
-        <v>0.67604166666666665</v>
+        <v>0.74699074074074068</v>
       </c>
       <c r="J27" s="6">
-        <v>0.47899659863945576</v>
+        <v>0.4616074885238648</v>
       </c>
       <c r="K27" s="6">
-        <v>0.73549381518311918</v>
+        <v>0.71291151265259922</v>
       </c>
       <c r="L27" s="6">
-        <v>0.46834164338458723</v>
+        <v>0.4736180361538227</v>
       </c>
       <c r="M27" s="6">
         <v>0.7037416316054087</v>
@@ -1584,7 +2338,7 @@
         <v>0.51209833338316313</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1601,35 +2355,35 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" si="7"/>
-        <v>0.60321200004354891</v>
+        <v>0.66104811862501922</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="7"/>
-        <v>0.36713206678430782</v>
+        <v>0.31752714150555378</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="7"/>
-        <v>0.64696160092575616</v>
+        <v>0.67816293581929954</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="7"/>
-        <v>0.47545161185356016</v>
+        <v>0.48717819647910315</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="7"/>
-        <v>0.69057643434775007</v>
+        <v>0.71167050026235401</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="7"/>
-        <v>0.54154400674290959</v>
+        <v>0.50386706614658694</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="7"/>
-        <v>0.68581510688425884</v>
+        <v>0.704741888440237</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="7"/>
-        <v>0.54457971646883607</v>
+        <v>0.55067802331846616</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="7"/>
@@ -1640,7 +2394,7 @@
         <v>0.5749562983359624</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1654,35 +2408,35 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="8"/>
-        <v>0.22630226936233408</v>
+        <v>5.766928677063457E-2</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="8"/>
-        <v>0.19909153497817847</v>
+        <v>5.8015579160060692E-2</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="8"/>
-        <v>0.1795143139134843</v>
+        <v>8.7860144018880038E-2</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="8"/>
-        <v>0.17442195916038933</v>
+        <v>8.5488907025786098E-2</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="8"/>
-        <v>0.12087723430188499</v>
+        <v>6.7999255707831746E-2</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="8"/>
-        <v>0.14073927734153174</v>
+        <v>8.4048527875503154E-2</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="8"/>
-        <v>9.3456621562114484E-2</v>
+        <v>7.7870036253527439E-2</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="8"/>
-        <v>0.11878903807586393</v>
+        <v>8.9378759842375283E-2</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="8"/>
@@ -1693,7 +2447,7 @@
         <v>8.0798838316976387E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1707,35 +2461,35 @@
       </c>
       <c r="E30" s="8">
         <f t="shared" si="9"/>
-        <v>7.1563061084991608E-2</v>
+        <v>1.8236629723262156E-2</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="9"/>
-        <v>6.2958271339012523E-2</v>
+        <v>1.834613699195901E-2</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="9"/>
-        <v>5.6767410456906503E-2</v>
+        <v>2.7783817065008078E-2</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="9"/>
-        <v>5.5157066489570056E-2</v>
+        <v>2.7033966087985497E-2</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="9"/>
-        <v>3.8224737765578977E-2</v>
+        <v>2.1503252723295348E-2</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" si="9"/>
-        <v>4.4505667264536759E-2</v>
+        <v>2.6578478207074291E-2</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" si="9"/>
-        <v>2.9553578656068509E-2</v>
+        <v>2.4624667604103159E-2</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="9"/>
-        <v>3.7564392138019549E-2</v>
+        <v>2.8264045554309801E-2</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="9"/>
@@ -1755,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94AED77-515D-468A-A3D4-FB87837FBF7A}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B30"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1818,28 +2572,28 @@
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>0.58333333333333337</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="E2" s="6">
-        <v>0.75</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F2" s="6">
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G2" s="6">
-        <v>0.5</v>
+        <v>0.40873015873015867</v>
       </c>
       <c r="H2" s="6">
-        <v>0.48809523809523803</v>
+        <v>0.43650793650793646</v>
       </c>
       <c r="I2" s="6">
-        <v>0.52976190476190477</v>
+        <v>0.46428571428571425</v>
       </c>
       <c r="J2" s="6">
-        <v>0.4238095238095238</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="K2" s="6">
-        <v>0.49523809523809514</v>
+        <v>0.41269841269841262</v>
       </c>
       <c r="L2" s="6">
         <v>0.42857142857142855</v>
@@ -1856,28 +2610,28 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="6">
-        <v>0.66666666666666674</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="E3" s="6">
-        <v>0.83333333333333326</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="F3" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="G3" s="6">
-        <v>0.61111111111111116</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="H3" s="6">
-        <v>0.79166666666666674</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="I3" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.78888888888888908</v>
       </c>
       <c r="J3" s="6">
-        <v>0.66666666666666674</v>
+        <v>0.68888888888888899</v>
       </c>
       <c r="K3" s="6">
-        <v>0.8</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="L3" s="6">
         <v>0.72</v>
@@ -1894,28 +2648,28 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="6">
-        <v>0.25</v>
+        <v>0.41111111111111104</v>
       </c>
       <c r="E4" s="6">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I4" s="6">
         <v>0.5</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.375</v>
-      </c>
       <c r="J4" s="6">
-        <v>0.5</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="K4" s="6">
-        <v>0.5</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="L4" s="6">
         <v>0.5</v>
@@ -1932,28 +2686,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.33918128654970764</v>
       </c>
       <c r="E5" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.38742690058479529</v>
       </c>
       <c r="F5" s="6">
-        <v>0.44444444444444442</v>
+        <v>0.41374269005847952</v>
       </c>
       <c r="G5" s="6">
-        <v>0.44444444444444442</v>
+        <v>0.41228070175438591</v>
       </c>
       <c r="H5" s="6">
-        <v>0.46491228070175439</v>
+        <v>0.42105263157894735</v>
       </c>
       <c r="I5" s="6">
-        <v>0.42543859649122806</v>
+        <v>0.39473684210526311</v>
       </c>
       <c r="J5" s="6">
-        <v>0.3719298245614035</v>
+        <v>0.47660818713450293</v>
       </c>
       <c r="K5" s="6">
-        <v>0.40350877192982459</v>
+        <v>0.50292397660818711</v>
       </c>
       <c r="L5" s="6">
         <v>0.51578947368421058</v>
@@ -1970,28 +2724,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>0.45962732919254656</v>
+        <v>0.56987577639751552</v>
       </c>
       <c r="E6" s="6">
-        <v>0.57453416149068326</v>
+        <v>0.64984472049689446</v>
       </c>
       <c r="F6" s="6">
-        <v>0.67805383022774335</v>
+        <v>0.58902691511387173</v>
       </c>
       <c r="G6" s="6">
-        <v>0.75983436853002073</v>
+        <v>0.62991718426501031</v>
       </c>
       <c r="H6" s="6">
-        <v>0.68607660455486541</v>
+        <v>0.7073844030365769</v>
       </c>
       <c r="I6" s="6">
-        <v>0.54114906832298137</v>
+        <v>0.61076604554865421</v>
       </c>
       <c r="J6" s="6">
-        <v>0.67660455486542448</v>
+        <v>0.6471704623878537</v>
       </c>
       <c r="K6" s="6">
-        <v>0.71697722567287792</v>
+        <v>0.68081435472739826</v>
       </c>
       <c r="L6" s="6">
         <v>0.77898550724637672</v>
@@ -2008,28 +2762,28 @@
         <v>0.25</v>
       </c>
       <c r="D7" s="6">
-        <v>0.125</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E7" s="6">
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="F7" s="6">
-        <v>0.41666666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G7" s="6">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.5</v>
       </c>
-      <c r="H7" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="K7" s="6">
         <v>0.58333333333333337</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.7</v>
       </c>
       <c r="L7" s="6">
         <v>0.41666666666666669</v>
@@ -2046,28 +2800,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>7.575757575757576E-2</v>
+        <v>4.3771043771043773E-2</v>
       </c>
       <c r="E8" s="6">
-        <v>0.4621212121212121</v>
+        <v>0.26515151515151514</v>
       </c>
       <c r="F8" s="6">
-        <v>0.28282828282828282</v>
+        <v>0.19696969696969693</v>
       </c>
       <c r="G8" s="6">
-        <v>0.32323232323232326</v>
+        <v>0.40235690235690241</v>
       </c>
       <c r="H8" s="6">
-        <v>0.27272727272727271</v>
+        <v>0.27441077441077438</v>
       </c>
       <c r="I8" s="6">
-        <v>0.53030303030303028</v>
+        <v>0.39057239057239057</v>
       </c>
       <c r="J8" s="6">
-        <v>0.19696969696969696</v>
+        <v>0.23821548821548821</v>
       </c>
       <c r="K8" s="6">
-        <v>0.50909090909090904</v>
+        <v>0.55387205387205385</v>
       </c>
       <c r="L8" s="6">
         <v>0.16767676767676767</v>
@@ -2084,28 +2838,28 @@
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>0.55774853801169588</v>
       </c>
       <c r="E9" s="6">
-        <v>0.5</v>
+        <v>0.40497076023391809</v>
       </c>
       <c r="F9" s="6">
-        <v>0.78947368421052622</v>
+        <v>0.49195906432748537</v>
       </c>
       <c r="G9" s="6">
-        <v>0.80701754385964908</v>
+        <v>0.54239766081871343</v>
       </c>
       <c r="H9" s="6">
-        <v>0.57894736842105265</v>
+        <v>0.52485380116959068</v>
       </c>
       <c r="I9" s="6">
-        <v>0.61842105263157898</v>
+        <v>0.59283625730994161</v>
       </c>
       <c r="J9" s="6">
-        <v>0.62368421052631573</v>
+        <v>0.63084795321637421</v>
       </c>
       <c r="K9" s="6">
-        <v>0.72631578947368425</v>
+        <v>0.716374269005848</v>
       </c>
       <c r="L9" s="6">
         <v>0.51140350877192986</v>
@@ -2122,28 +2876,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>0.24358974358974358</v>
+        <v>0.25712250712250712</v>
       </c>
       <c r="E10" s="6">
-        <v>0.48717948717948717</v>
+        <v>0.37535612535612534</v>
       </c>
       <c r="F10" s="6">
-        <v>0.21367521367521367</v>
+        <v>0.18091168091168089</v>
       </c>
       <c r="G10" s="6">
-        <v>0.43162393162393164</v>
+        <v>0.32692307692307693</v>
       </c>
       <c r="H10" s="6">
-        <v>0.36858974358974356</v>
+        <v>0.31980056980056976</v>
       </c>
       <c r="I10" s="6">
-        <v>0.40705128205128205</v>
+        <v>0.30840455840455844</v>
       </c>
       <c r="J10" s="6">
-        <v>0.19487179487179485</v>
+        <v>0.16239316239316237</v>
       </c>
       <c r="K10" s="6">
-        <v>0.38547008547008543</v>
+        <v>0.32122507122507121</v>
       </c>
       <c r="L10" s="6">
         <v>0.31025641025641021</v>
@@ -2160,28 +2914,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>0.25</v>
+        <v>0.44920634920634916</v>
       </c>
       <c r="E11" s="6">
-        <v>0.5</v>
+        <v>0.48809523809523808</v>
       </c>
       <c r="F11" s="6">
-        <v>0.5</v>
+        <v>0.526984126984127</v>
       </c>
       <c r="G11" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.63015873015873014</v>
       </c>
       <c r="H11" s="6">
-        <v>0.6</v>
+        <v>0.55476190476190468</v>
       </c>
       <c r="I11" s="6">
-        <v>0.7</v>
+        <v>0.5619047619047618</v>
       </c>
       <c r="J11" s="6">
-        <v>0.59428571428571431</v>
+        <v>0.55079365079365084</v>
       </c>
       <c r="K11" s="6">
-        <v>0.69428571428571428</v>
+        <v>0.6063492063492063</v>
       </c>
       <c r="L11" s="6">
         <v>0.58952380952380956</v>
@@ -2203,35 +2957,35 @@
       </c>
       <c r="D12" s="7">
         <f t="shared" ref="D12:M12" si="0">AVERAGE(D2:D11)</f>
-        <v>0.38206413152065327</v>
+        <v>0.38113499455032629</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>0.50863348607913816</v>
+        <v>0.46361230376962642</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0.46029198998306542</v>
+        <v>0.41051497299208972</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0.55439303894681469</v>
+        <v>0.49749866372292006</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>0.51468485080899273</v>
+        <v>0.49498831323774112</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>0.55437916012286725</v>
+        <v>0.51262843479090614</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>0.48488219865565407</v>
+        <v>0.47758701739823028</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="0"/>
-        <v>0.59308865911611908</v>
+        <v>0.57053684555972883</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
@@ -2252,35 +3006,35 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" ref="D13:M13" si="1">_xlfn.STDEV.S(D2:D11)</f>
-        <v>0.2924470415992052</v>
+        <v>0.15908886089467464</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.1904053018498236</v>
+        <v>0.13919949816034566</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>0.20571893732223023</v>
+        <v>0.16447306504816503</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>0.15323171243719966</v>
+        <v>0.11858576212307897</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>0.15639111689252752</v>
+        <v>0.16323628936625961</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>0.13977335949123831</v>
+        <v>0.13655030100006718</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>0.18196660007094367</v>
+        <v>0.17556319143621107</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="1"/>
-        <v>0.14978610157403238</v>
+        <v>0.14192180262908805</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
@@ -2300,36 +3054,36 @@
         <v>6.7185481235821243E-2</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" ref="D14:M14" si="2">D13/SQRT(10)</f>
-        <v>9.2479874643149926E-2</v>
+        <f t="shared" ref="D14:L14" si="2">D13/SQRT(10)</f>
+        <v>5.0308315078886445E-2</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="2"/>
-        <v>6.0211443241731409E-2</v>
+        <v>4.4018746333911049E-2</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="2"/>
-        <v>6.5054039976766773E-2</v>
+        <v>5.2010949930123292E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>4.8456122106950168E-2</v>
+        <v>3.7500110637585418E-2</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="2"/>
-        <v>4.9455213519802144E-2</v>
+        <v>5.1619847119170392E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>4.4200217220582677E-2</v>
+        <v>4.3180996634178036E-2</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="2"/>
-        <v>5.7542891430113895E-2</v>
+        <v>5.5517955822659476E-2</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="2"/>
-        <v>4.7366524281127427E-2</v>
+        <v>4.4879614594479103E-2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
@@ -2388,34 +3142,34 @@
       <c r="C18" s="6">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.51063829787234039</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.86666666666666659</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="D18" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.25354609929078015</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="L18" s="6">
         <v>0.8</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="6">
         <v>0.56666666666666665</v>
       </c>
     </row>
@@ -2426,34 +3180,34 @@
       <c r="C19" s="6">
         <v>0.5</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.40280898876404497</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.29196217494089832</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.84523809523809523</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.69841269841269837</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.58666666666666667</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.41538461538461541</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="D19" s="6">
+        <v>0.46944444444444439</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.40590527368739387</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.3951874366767984</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.74603174603174605</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.66005291005291</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.562962962962963</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.44139194139194143</v>
+      </c>
+      <c r="L19" s="6">
         <v>0.65333333333333332</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="6">
         <v>0.77500000000000002</v>
       </c>
     </row>
@@ -2464,34 +3218,34 @@
       <c r="C20" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D20" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5.4487179487179488E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.40666666666666662</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.17651515151515151</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="D20" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.30592592592592593</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.28914835164835168</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.44861111111111107</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.31376262626262624</v>
+      </c>
+      <c r="L20" s="6">
         <v>0.6</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="6">
         <v>0.38492063492063489</v>
       </c>
     </row>
@@ -2502,34 +3256,34 @@
       <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.0408163265306124E-3</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="D21" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.29755527210884353</v>
+      </c>
+      <c r="F21" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G21" s="1">
-        <v>0.18253968253968256</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.27426470588235297</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="G21" s="6">
+        <v>0.38293650793650791</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.65151515151515149</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.40740740740740744</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.37141106442577027</v>
+      </c>
+      <c r="L21" s="6">
         <v>0.45</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="6">
         <v>0.40277777777777773</v>
       </c>
     </row>
@@ -2540,34 +3294,34 @@
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.3487179487179487</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.42889280125195617</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.73368298368298368</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.41687192118226601</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.78135198135198125</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.57825077399380809</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="D22" s="6">
+        <v>0.6767676767676768</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.41217948717948721</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.54777973395931145</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.76689976689976691</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.52791461412151064</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.76223776223776218</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.59298675610595108</v>
+      </c>
+      <c r="L22" s="6">
         <v>0.81923076923076932</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="6">
         <v>0.71540404040404038</v>
       </c>
     </row>
@@ -2578,34 +3332,34 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.7857142857142856E-2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.3737373737373737</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.59523809523809523</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.57333333333333336</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.48296296296296293</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="D23" s="6">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.22110389610389611</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.28520840589806107</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.45238095238095238</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.42460317460317465</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.40246913580246907</v>
+      </c>
+      <c r="L23" s="6">
         <v>0.45</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="6">
         <v>0.46111111111111108</v>
       </c>
     </row>
@@ -2616,34 +3370,34 @@
       <c r="C24" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.47664700098328416</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.32318840579710145</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.29723502304147464</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.3239348370927318</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.26260869565217393</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.25428571428571428</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="D24" s="6">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.3969775717563328</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.31238785369220151</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.30232334869431643</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.28262322472848789</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.29291465378421899</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.30912698412698414</v>
+      </c>
+      <c r="L24" s="6">
         <v>0.27333333333333332</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="6">
         <v>0.36789215686274507</v>
       </c>
     </row>
@@ -2654,34 +3408,34 @@
       <c r="C25" s="6">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.9069767441860465E-3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.510752688172043</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="D25" s="6">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.11457298085205063</v>
+      </c>
+      <c r="F25" s="6">
         <v>0.625</v>
       </c>
-      <c r="I25" s="1">
-        <v>0.32916666666666666</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.44388888888888883</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="G25" s="6">
+        <v>0.47759856630824365</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.48101851851851846</v>
+      </c>
+      <c r="L25" s="6">
         <v>0.62</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="6">
         <v>0.5643274853801169</v>
       </c>
     </row>
@@ -2692,34 +3446,34 @@
       <c r="C26" s="6">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.26219512195121952</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.39935064935064934</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.59166666666666667</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.29700854700854701</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.2661904761904762</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="D26" s="6">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.29391466471055688</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.30443722943722945</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.26467236467236471</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.22182539682539681</v>
+      </c>
+      <c r="L26" s="6">
         <v>0.6</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="6">
         <v>0.49861111111111112</v>
       </c>
     </row>
@@ -2730,34 +3484,34 @@
       <c r="C27" s="6">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="1">
-        <v>9.871668311944718E-4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.1146761734997029</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.40384615384615385</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.54666666666666663</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.25553030303030305</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="D27" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.17718448246582499</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.34980603546780015</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.33589743589743587</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.29627525252525255</v>
+      </c>
+      <c r="L27" s="6">
         <v>0.63846153846153852</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="6">
         <v>0.60277777777777775</v>
       </c>
     </row>
@@ -2774,35 +3528,35 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="3"/>
-        <v>0.58428030303030298</v>
+        <v>0.54406565656565664</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>0.20314661277145585</v>
+        <v>0.2878865654081092</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="3"/>
-        <v>0.55976190476190468</v>
+        <v>0.55488095238095236</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="3"/>
-        <v>0.30462537954432534</v>
+        <v>0.37222678988022834</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="3"/>
-        <v>0.62635478768543285</v>
+        <v>0.59985160448870123</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="3"/>
-        <v>0.4367851935320175</v>
+        <v>0.42795600203721795</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="3"/>
-        <v>0.56239606770041561</v>
+        <v>0.55708931567627218</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>0.40139402588009399</v>
+        <v>0.41524898982071329</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="3"/>
@@ -2823,35 +3577,35 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" ref="D29:M29" si="4">_xlfn.STDEV.S(D18:D27)</f>
-        <v>0.32319687157621668</v>
+        <v>0.12700901723062663</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="4"/>
-        <v>0.21813371411341823</v>
+        <v>9.9813702167133714E-2</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>0.24765325872745353</v>
+        <v>0.16057528772656965</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>0.14513939864886838</v>
+        <v>8.5471105799131974E-2</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>0.20047332155802705</v>
+        <v>0.15090679040947186</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="4"/>
-        <v>0.16082636691035923</v>
+        <v>0.12729888534361128</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="4"/>
-        <v>0.15163422059587045</v>
+        <v>0.14844037839751034</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="4"/>
-        <v>0.20665092253542305</v>
+        <v>0.15130772571254147</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="4"/>
@@ -2872,35 +3626,35 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" ref="D30" si="5">D29/SQRT(10)</f>
-        <v>0.10220382468217785</v>
+        <v>4.0163777782835135E-2</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" ref="E30" si="6">E29/SQRT(10)</f>
-        <v>6.8979937107041839E-2</v>
+        <v>3.1563864054182711E-2</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30" si="7">F29/SQRT(10)</f>
-        <v>7.8314836754172598E-2</v>
+        <v>5.0778364515284093E-2</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" ref="G30" si="8">G29/SQRT(10)</f>
-        <v>4.589710779575891E-2</v>
+        <v>2.7028336845848305E-2</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" ref="H30" si="9">H29/SQRT(10)</f>
-        <v>6.339523062227008E-2</v>
+        <v>4.7720917207958465E-2</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" ref="I30" si="10">I29/SQRT(10)</f>
-        <v>5.0857762724667202E-2</v>
+        <v>4.0255442128643786E-2</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ref="J30" si="11">J29/SQRT(10)</f>
-        <v>4.7950950830736506E-2</v>
+        <v>4.694096924733878E-2</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ref="K30" si="12">K29/SQRT(10)</f>
-        <v>6.5348759578695459E-2</v>
+        <v>4.7847704083165458E-2</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ref="L30" si="13">L29/SQRT(10)</f>
@@ -2921,7 +3675,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2973,22 +3727,22 @@
       <c r="C2" s="6">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D2" s="9">
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.5</v>
       </c>
-      <c r="F2" s="9">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="F2" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -3000,22 +3754,22 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.83333333333333326</v>
       </c>
-      <c r="E3" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -3027,22 +3781,22 @@
       <c r="C4" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D4" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="D4" s="6">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.83333333333333326</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -3054,22 +3808,22 @@
       <c r="C5" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F5" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="F5" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I5" s="9">
+      <c r="G5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I5" s="6">
         <v>0.41666666666666663</v>
       </c>
     </row>
@@ -3081,22 +3835,22 @@
       <c r="C6" s="6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.74074074074074081</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="D6" s="6">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>0.34722222222222221</v>
       </c>
     </row>
@@ -3108,22 +3862,22 @@
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F7" s="9">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>0.75</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -3135,22 +3889,22 @@
       <c r="C8" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8" s="9">
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.52020202020202022</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="D8" s="6">
+        <v>0.26704545454545459</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.45265151515151514</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.41477272727272729</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>0.13636363636363635</v>
       </c>
     </row>
@@ -3162,22 +3916,22 @@
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>0.875</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>0.625</v>
       </c>
     </row>
@@ -3189,22 +3943,22 @@
       <c r="C10" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D10" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="D10" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="H10" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>0.20833333333333331</v>
       </c>
     </row>
@@ -3216,22 +3970,22 @@
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="D11" s="6">
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H11" s="6">
         <v>0.60416666666666663</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>0.52083333333333326</v>
       </c>
     </row>
@@ -3248,19 +4002,19 @@
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>0.66174242424242424</v>
+        <v>0.68323232323232319</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>0.53863636363636369</v>
+        <v>0.3919570707070707</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>0.7177609427609426</v>
+        <v>0.74040404040404051</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0.4164478114478114</v>
+        <v>0.43525252525252522</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
@@ -3282,19 +4036,19 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" ref="D13:I13" si="1">_xlfn.STDEV.S(D2:D11)</f>
-        <v>0.23202144705320643</v>
+        <v>0.20377386477125412</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.30810564562903214</v>
+        <v>0.1719406890375659</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>0.2082981582158735</v>
+        <v>0.19613602929832305</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>0.2776439275514308</v>
+        <v>0.28427832575948525</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
@@ -3316,19 +4070,19 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" ref="D14:I14" si="2">D13/SQRT(10)</f>
-        <v>7.3371623869629504E-2</v>
+        <v>6.4438954029230916E-2</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="2"/>
-        <v>9.7431560014444349E-2</v>
+        <v>5.4372419981745281E-2</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="2"/>
-        <v>6.5869661238027524E-2</v>
+        <v>6.2023658380421766E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>8.7798718957729754E-2</v>
+        <v>8.9896699881928929E-2</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="2"/>
@@ -3376,22 +4130,22 @@
       <c r="C18" s="6">
         <v>0.625</v>
       </c>
-      <c r="D18">
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="E18">
-        <v>1.4634146341463415E-3</v>
-      </c>
-      <c r="F18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G18">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H18">
+      <c r="D18" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.25073170731707317</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.63749999999999996</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -3403,22 +4157,22 @@
       <c r="C19" s="6">
         <v>0.8</v>
       </c>
-      <c r="D19">
-        <v>0.65</v>
-      </c>
-      <c r="E19">
-        <v>3.63460140537921E-4</v>
-      </c>
-      <c r="F19">
-        <v>0.83974358974358976</v>
-      </c>
-      <c r="G19">
-        <v>0.32083333333333336</v>
-      </c>
-      <c r="H19">
+      <c r="D19" s="6">
+        <v>0.6611111111111112</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.3865453664339053</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.77266483516483508</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.36562499999999998</v>
+      </c>
+      <c r="H19" s="6">
         <v>0.63124999999999998</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -3430,22 +4184,22 @@
       <c r="C20" s="6">
         <v>0.4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>0.75</v>
       </c>
-      <c r="E20">
-        <v>0.5003864983251739</v>
-      </c>
-      <c r="F20">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="G20">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="H20">
+      <c r="E20" s="6">
+        <v>0.3216218205911584</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="H20" s="6">
         <v>0.43154761904761901</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <v>0.29444444444444445</v>
       </c>
     </row>
@@ -3457,22 +4211,22 @@
       <c r="C21" s="6">
         <v>0.2</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0.50016066838046269</v>
-      </c>
-      <c r="F21">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="G21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H21">
+      <c r="D21" s="6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.50008033419023135</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -3484,22 +4238,22 @@
       <c r="C22" s="6">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="H22">
+      <c r="D22" s="6">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.21875</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H22" s="6">
         <v>0.625</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -3511,22 +4265,22 @@
       <c r="C23" s="6">
         <v>0.2</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0.5001518833535844</v>
-      </c>
-      <c r="F23">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="G23">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H23">
+      <c r="D23" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.2500759416767922</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H23" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -3538,22 +4292,22 @@
       <c r="C24" s="6">
         <v>0.5</v>
       </c>
-      <c r="D24">
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="E24">
-        <v>0.37546948356807514</v>
-      </c>
-      <c r="F24">
-        <v>0.74242424242424254</v>
-      </c>
-      <c r="G24">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H24">
+      <c r="D24" s="6">
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.18773474178403757</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.80681818181818188</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="6">
         <v>0.5625</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>0.21428571428571427</v>
       </c>
     </row>
@@ -3565,22 +4319,22 @@
       <c r="C25" s="6">
         <v>0.22222222222222221</v>
       </c>
-      <c r="D25">
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="E25">
-        <v>0.50027151778441492</v>
-      </c>
-      <c r="F25">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="G25">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H25">
+      <c r="D25" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.25013575889220746</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H25" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -3592,22 +4346,22 @@
       <c r="C26" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D26">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E26">
-        <v>1.9443904335990667E-4</v>
-      </c>
-      <c r="F26">
-        <v>0.55555555555555547</v>
-      </c>
-      <c r="G26">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H26">
+      <c r="D26" s="6">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5.0097219521679955E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="H26" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>0.14583333333333331</v>
       </c>
     </row>
@@ -3619,22 +4373,22 @@
       <c r="C27" s="6">
         <v>0.5</v>
       </c>
-      <c r="D27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E27">
-        <v>0.50118953211736716</v>
-      </c>
-      <c r="F27">
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="G27">
-        <v>0.31111111111111112</v>
-      </c>
-      <c r="H27">
+      <c r="D27" s="6">
         <v>0.58333333333333326</v>
       </c>
-      <c r="I27">
+      <c r="E27" s="6">
+        <v>0.25059476605868358</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="I27" s="6">
         <v>0.4375</v>
       </c>
     </row>
@@ -3651,19 +4405,19 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="3"/>
-        <v>0.72257575757575754</v>
+        <v>0.67156565656565659</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="3"/>
-        <v>0.28796508973471224</v>
+        <v>0.2666367656465769</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="3"/>
-        <v>0.7213120213120211</v>
+        <v>0.68860306360306356</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="3"/>
-        <v>0.38263888888888892</v>
+        <v>0.36697916666666669</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="3"/>
@@ -3685,19 +4439,19 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" ref="D29:I29" si="4">_xlfn.STDEV.S(D18:D27)</f>
-        <v>0.2407109597552872</v>
+        <v>0.14150105554206407</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="4"/>
-        <v>0.25031147318164326</v>
+        <v>0.11942558630554545</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>0.21957457707739497</v>
+        <v>0.17243578225174097</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>0.18199479795170365</v>
+        <v>0.1592868840772623</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="4"/>
@@ -3719,19 +4473,19 @@
       </c>
       <c r="D30" s="8">
         <f t="shared" ref="D30" si="5">D29/SQRT(10)</f>
-        <v>7.6119489059183448E-2</v>
+        <v>4.4746562683091427E-2</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" ref="E30" si="6">E29/SQRT(10)</f>
-        <v>7.9155437972614678E-2</v>
+        <v>3.7765686362653712E-2</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30" si="7">F29/SQRT(10)</f>
-        <v>6.9435577983276597E-2</v>
+        <v>5.4528982202833955E-2</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" ref="G30" si="8">G29/SQRT(10)</f>
-        <v>5.7551808382953033E-2</v>
+        <v>5.0370935507535686E-2</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" ref="H30" si="9">H29/SQRT(10)</f>
@@ -3746,4 +4500,2452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4109CB-06D1-4B26-AE64-D7DC49DE87DC}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.31147540983606559</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.58235223388796786</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.53281813277899115</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.57547598987474347</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.55160797084570634</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.56198454767865957</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.55599736602990735</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.61116534253468624</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.56141114834014083</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.66027435943166279</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.58952085247980746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.54048147487598175</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.45996703855630194</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.54871374406330709</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.48760208249388448</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.581310343992408</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.58301037944192335</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.63608694599123228</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.57024211358376986</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.54022154846124892</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.59386486688817108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.47720797720797714</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.50769230769230766</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.46866096866096868</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.52706552706552712</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.55398860398860394</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.54985754985754987</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.53145299145299152</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.51780626780626793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.47240910049259194</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.41911525118356235</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.51319648093841641</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.43411343031836386</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.5531213462902268</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.48566787418779828</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.60379889981408008</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.48439326854886627</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.61702029785521251</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.56695992179863142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.47715247715247711</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.5492424242424242</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.51611351611351608</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.51016113516113515</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.53423120089786758</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.5055315055315055</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.57872374539041205</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.61291486291486286</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.57568542568542569</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.56677890011223353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.56797306636566025</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.46974618185929901</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.59140728263793851</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.47699833413263776</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.67272449244169952</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.5502628931700414</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.65686117544536859</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.59447120164695699</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.65349609900457362</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.62015555731012617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.56934266972169278</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.50293347772308783</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.49513524557984828</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.44898236324016322</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.62479524390753749</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.58648706661405003</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.6156210136038397</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.60757546557028352</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.68774467486302859</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.63304580295897028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.39496193202674318</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.45446428866226274</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.45353372497353622</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.44767231277606961</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.45135058195640415</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.44159213986121931</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.50499870444795703</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.48657520639473834</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.47131491247344909</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.49297463466916652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.52831694271911667</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.51098602484472044</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.64975414078674953</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.56462215320910969</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.63302708764665294</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.57870945479641123</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.65482660455486552</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.57792443064182197</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.70695134575569374</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.62251984126984128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.60348621286121285</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.57221551596551601</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.61230574980574981</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.58528103840603829</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.66080412642912645</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.60783487345987353</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.64496753246753247</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.63211429773929773</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.67322469197469192</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.62000418562918558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.29616350989859364</v>
+      </c>
+      <c r="D12" s="7">
+        <f>AVERAGE(D2:D11)</f>
+        <v>0.51787838024111355</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12" si="0">AVERAGE(E2:E11)</f>
+        <v>0.49486963130241418</v>
+      </c>
+      <c r="F12" s="7">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.54633281824661128</v>
+      </c>
+      <c r="G12" s="7">
+        <f>AVERAGE(G2:G11)</f>
+        <v>0.49757017892440769</v>
+      </c>
+      <c r="H12" s="7">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.58004144983061101</v>
+      </c>
+      <c r="I12" s="7">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.54490821570813341</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" ref="J12" si="1">AVERAGE(J2:J11)</f>
+        <v>0.60569075141075246</v>
+      </c>
+      <c r="K12" s="7">
+        <f>AVERAGE(K2:K11)</f>
+        <v>0.56553997731585159</v>
+      </c>
+      <c r="L12" s="7">
+        <f>AVERAGE(L2:L11)</f>
+        <v>0.61173863469579781</v>
+      </c>
+      <c r="M12" s="7">
+        <f>AVERAGE(M2:M11)</f>
+        <v>0.58236308309224005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>0.11320620583680416</v>
+      </c>
+      <c r="D13" s="6">
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>6.8157440005496964E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13" si="2">_xlfn.STDEV.S(E2:E11)</f>
+        <v>4.7418080880342502E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>6.0251577703362424E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>_xlfn.STDEV.S(G2:G11)</f>
+        <v>5.323262916105128E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <f>_xlfn.STDEV.S(H2:H11)</f>
+        <v>6.867140499404914E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f>_xlfn.STDEV.S(I2:I11)</f>
+        <v>5.1909230517906073E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13" si="3">_xlfn.STDEV.S(J2:J11)</f>
+        <v>4.9006748995350811E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f>_xlfn.STDEV.S(K2:K11)</f>
+        <v>5.1336858149671372E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>7.8407302574413668E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <f>_xlfn.STDEV.S(M2:M11)</f>
+        <v>4.6960921069860509E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C13/SQRT(10)</f>
+        <v>3.5798945571014894E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D13/SQRT(10)</f>
+        <v>2.1553274990364961E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14" si="4">E13/SQRT(10)</f>
+        <v>1.4994913785596444E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F13/SQRT(10)</f>
+        <v>1.9053221816124222E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <f>G13/SQRT(10)</f>
+        <v>1.6833635398802026E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <f>H13/SQRT(10)</f>
+        <v>2.1715804990505686E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <f>I13/SQRT(10)</f>
+        <v>1.6415140002330502E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" ref="J14" si="5">J13/SQRT(10)</f>
+        <v>1.5497294754547702E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <f>K13/SQRT(10)</f>
+        <v>1.6234139966993875E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <f>L13/SQRT(10)</f>
+        <v>2.4794566132513098E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <f>M13/SQRT(10)</f>
+        <v>1.4850347160015043E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.76083758156928882</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.38333616361359174</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.80547795452514137</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.5736728061560733</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.72648647552643408</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.57050360599596595</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.72989190489190481</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.61812046159872247</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.67927569896816975</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.59945066002940772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.72407407407407398</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.39511144995340919</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.79516178266178272</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.64689415522748861</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.72637201979307242</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.65267941745972891</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.74290842277816649</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.65933579303144518</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.76470194580832884</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.6179322940783043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.56602443609022557</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.2863174907644217</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.56482487922705316</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.46663253114866016</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.66404771698889353</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.5287627831106092</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.62287347155768213</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.56072150072150073</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.54935828877005355</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.50448155645524062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.7866093256582386</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.42690421706440018</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.80290450290450288</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.65166656205548523</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.86778663615245322</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.65413235514861534</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.81373576604554865</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.69448416195698803</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.7870170077600418</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.74008035564062735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.6297037493158183</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.31533178518795651</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.6295775237307496</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.4446938597800667</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.61170668458954458</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.42912282543891883</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.62356239688228932</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.46961375242555675</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.53716136014523108</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.48826244059542051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.72948897507721033</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.37062911847703806</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.68817869248609276</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.59673254947063292</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.78065466159500529</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.62306537732831369</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.75129644783900096</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.63041148531338465</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.76870785025098809</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.61945499571998142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.6637871387871388</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.31849776957893822</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.66038122325435755</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.48231343819579114</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.68866599729037359</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.54874817537546561</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.63756162676043227</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.57304634591743342</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.68663101604278087</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.59271824105916493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.64457070707070707</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.34210568976659333</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.6816756272401433</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.46604813500902925</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.7576811594202898</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.49247710109972148</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.67050969464762566</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.49758008950706722</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.66862026862026858</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.59429670165557258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.57635796083164503</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.24855325686792651</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.73569061657296952</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.41012433239366058</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.74084193483100591</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.48352038650878976</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.73391544117647056</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.51665246964639711</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.68513652933489233</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.55809493480378192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.38108065374284666</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.65803350915009573</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.37674573066729927</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.6705781965790002</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.53449699699699693</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.72292929292929298</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.60693806407781292</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.72234576903307557</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.62768809635450074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:M28" si="6">AVERAGE(C18:C27)</f>
+        <v>0.92552115583075345</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.68147872818076805</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34678675950171223</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.7021906311752889</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.51155241001041873</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.72348214827660728</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.55175090244631264</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.70491844655084135</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.58269041241963071</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.68489557347338303</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.59424602763920009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:M29" si="7">_xlfn.STDEV.S(C18:C27)</f>
+        <v>0.11872958048448178</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.6662630035516557E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="7"/>
+        <v>5.4723973208320696E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="7"/>
+        <v>8.0990074949840146E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="7"/>
+        <v>9.8284098902706132E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.119456266063294E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.464549147193382E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="7"/>
+        <v>6.350445683787781E-2</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.2617447923246939E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="7"/>
+        <v>8.5453139193834335E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.0086503609558176E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" ref="C30:M30" si="8">C29/SQRT(10)</f>
+        <v>3.7545589996724027E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.4242852233106741E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="8"/>
+        <v>1.7305239795232543E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.5611310470924215E-2</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="8"/>
+        <v>3.108016103098071E-2</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2513697502717738E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.3604977011398558E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.0081872517954808E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2963653330612444E-2</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.7022655306392127E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2163298464381628E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94B095-97C5-4604-A9C7-00E9CF01396C}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.57792576398289541</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.58776849326060354</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.60558835835897296</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.54514791392362461</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.58077933987017916</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.53073013160429505</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.62632153309534033</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.55895729317016229</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.69174692348849653</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.60918141858846109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.5289441438942063</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.52046141617510744</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.56622426332164155</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.51072452423888126</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.54325127100824144</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.51607123591101955</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.59456356362307261</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.58053634456048098</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.5785975202953979</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.63967428280786587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.53689458689458691</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.47792022792022787</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.54900284900284901</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.5092592592592593</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.58319088319088319</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.51495726495726502</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.49358974358974361</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.48931623931623919</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.54341880341880344</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.58603988603988599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.53110804439077686</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.44963391026009619</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.59383685047821666</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.44220669695053</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.59003220056350991</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.4404960420140685</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.5918866080156403</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.49281237421654872</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.65066988672301762</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.56990205661932414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.53332932499599173</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.63602292768959445</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.52427048260381592</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.46833413500080168</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.56750040083373421</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.45701058201058192</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.5864798781465449</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.53328924162257496</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.5690957190957191</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.57431457431457422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.56173776089490901</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.56518412756898384</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.6174759136439314</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.51818186027379098</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.64358585016746395</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.50270213628725047</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.69303337973197954</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.59013017452129468</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.67026365348399253</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.68345637260062464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.4572246882007262</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.57359870049220996</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.59568887984753416</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.47519169116499893</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.6154038936288021</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.555649618784536</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.64733325073749914</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.60993812705278694</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.70257380855509299</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.66334546013527362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.49207723315217411</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.39536421350691614</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.49926133446737303</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.43129902980660262</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.49999016768538795</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.41194959408964132</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.51060847110955299</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.44209023410931358</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.52562884178737845</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.50024964253426096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.60857056590752245</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.60570220841959976</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.65144496204278812</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.54315476190476186</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.63976017943409247</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.52484472049689435</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.64970669427191163</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.58094375431331957</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.66672877846790901</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.69510438233264316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.63358065545565545</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.58120664058164051</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.65018395955895958</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.57402354589854587</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.63974867724867723</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.54204961704961707</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.62814419376919384</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.5430404086654087</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.66012154512154519</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.64130765068265061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.24894357503587722</v>
+      </c>
+      <c r="D12" s="7">
+        <f>AVERAGE(D2:D11)</f>
+        <v>0.5461392767769444</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ref="E12" si="0">AVERAGE(E2:E11)</f>
+        <v>0.539286286587498</v>
+      </c>
+      <c r="F12" s="7">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.58529778533260823</v>
+      </c>
+      <c r="G12" s="7">
+        <f>AVERAGE(G2:G11)</f>
+        <v>0.50175234184217976</v>
+      </c>
+      <c r="H12" s="7">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.59032428636309719</v>
+      </c>
+      <c r="I12" s="7">
+        <f>AVERAGE(I2:I11)</f>
+        <v>0.49964609432051688</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" ref="J12" si="1">AVERAGE(J2:J11)</f>
+        <v>0.60216673160904777</v>
+      </c>
+      <c r="K12" s="7">
+        <f>AVERAGE(K2:K11)</f>
+        <v>0.54210541915481292</v>
+      </c>
+      <c r="L12" s="7">
+        <f>AVERAGE(L2:L11)</f>
+        <v>0.62588454804373528</v>
+      </c>
+      <c r="M12" s="7">
+        <f>AVERAGE(M2:M11)</f>
+        <v>0.61625757266555647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>0.13832963558790101</v>
+      </c>
+      <c r="D13" s="6">
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>5.2065164685474327E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13" si="2">_xlfn.STDEV.S(E2:E11)</f>
+        <v>7.6446214473709265E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>5.0576035791578509E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>_xlfn.STDEV.S(G2:G11)</f>
+        <v>4.6617645271894492E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <f>_xlfn.STDEV.S(H2:H11)</f>
+        <v>4.6417892980383312E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f>_xlfn.STDEV.S(I2:I11)</f>
+        <v>4.7206861545558414E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13" si="3">_xlfn.STDEV.S(J2:J11)</f>
+        <v>6.1821011427703451E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f>_xlfn.STDEV.S(K2:K11)</f>
+        <v>5.3203100965072581E-2</v>
+      </c>
+      <c r="L13" s="6">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>6.4941149493678921E-2</v>
+      </c>
+      <c r="M13" s="6">
+        <f>_xlfn.STDEV.S(M2:M11)</f>
+        <v>6.0050613235617847E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C13/SQRT(10)</f>
+        <v>4.3743671635885217E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <f>D13/SQRT(10)</f>
+        <v>1.6464450715786307E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14" si="4">E13/SQRT(10)</f>
+        <v>2.4174415623465142E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <f>F13/SQRT(10)</f>
+        <v>1.5993546812358508E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <f>G13/SQRT(10)</f>
+        <v>1.4741793821296601E-2</v>
+      </c>
+      <c r="H14" s="8">
+        <f>H13/SQRT(10)</f>
+        <v>1.4678626600395277E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <f>I13/SQRT(10)</f>
+        <v>1.492812036721811E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" ref="J14" si="5">J13/SQRT(10)</f>
+        <v>1.954952033668407E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <f>K13/SQRT(10)</f>
+        <v>1.6824297763353174E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <f>L13/SQRT(10)</f>
+        <v>2.0536194626951589E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <f>M13/SQRT(10)</f>
+        <v>1.8989671271440592E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.80175802879291247</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.31672181091153406</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.7476023540308766</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.58220034570301948</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.7740689479802384</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.61598235316574168</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.74640112366785782</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.65898688150117435</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.73338744588744587</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.69457909247229221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.7276164084383262</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.39231771523210623</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.75968537877414544</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.56543415600792646</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.77049612395200617</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.6151460984794318</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.70933446944785139</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.64372247956505979</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.7376613929805419</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.71730807206770619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.66319444444444453</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.25626712768793231</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.60327903091060986</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.33246568062932219</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.63489278752436651</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.48865751334858887</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.54542379094808757</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.49024216524216518</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.61472222222222217</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.53862041467304622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.88474274767378225</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.33292160291667056</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.892526455026455</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.56119147263648539</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.88228964522067965</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.63935836258086887</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.8464774965458447</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.70094983515993936</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.79954022988505746</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.77648378191856449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.64908424908424911</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.24904859949991351</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.7075231481481481</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.39813372626134552</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.69701479076479078</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.45671128137468409</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.66640546302152881</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.52694581280788177</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.59047619047619049</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.56022904880002067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.69813169993735891</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.31480181178784944</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.71164056865811254</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.46512607563860059</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.77921150623013979</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.60416517931510427</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.73092592592592587</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.63955502492087857</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.70050903119868635</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.7179255103697294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.63924661422431273</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.3129300838759303</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.76317658376481923</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.44201171169998082</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.75129066484829321</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.51702846914711331</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.66822240147817213</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.57909356725146199</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.68608496732026147</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.6211673801275216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.72413843516838072</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.17692935390479139</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.72466951131046498</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.4052807067785858</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.76404928404928407</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.45121956474897656</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.70727270685674759</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.56170399648660518</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.71759259259259256</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.66395652653259141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.66033359914938849</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.15613116692593484</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.67374716055576467</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.33067550474949697</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.71483188377166762</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.39583959722322448</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.72418229918229915</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.52518381965103278</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.76270676691729322</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.69084982191211342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.73615005527286226</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.24423155213051176</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.6975116362334407</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.38457697415337272</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.75031408303341285</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.45798471048129041</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.71083950664907214</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.56463535234882489</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.71028202775934601</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.72190945656475247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:M28" si="6">AVERAGE(C18:C27)</f>
+        <v>0.92611111111111111</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.71843962821860163</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.2752300824873174</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.72813618274128367</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.44670963542581354</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.75184597173748779</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.52420931298650242</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.70554851837233878</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.58910189349350239</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.70529628672396372</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.67030291054383384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:M29" si="7">_xlfn.STDEV.S(C18:C27)</f>
+        <v>0.10631790979128032</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.6703967239831097E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.2724868268145407E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.4401786236907644E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="7"/>
+        <v>9.4500214305229924E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="7"/>
+        <v>6.3955051553659464E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="7"/>
+        <v>8.7182757303568587E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.5374465006819324E-2</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="7"/>
+        <v>6.8389706736458361E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="7"/>
+        <v>6.3219074484265086E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="7"/>
+        <v>7.5526029755189378E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" ref="C30:M30" si="8">C29/SQRT(10)</f>
+        <v>3.3620675100876275E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.425592420488051E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.2997622626304445E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.3527910649359621E-2</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.9883591657855289E-2</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.022436307830543E-2</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.7569608577295655E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.3835498683820799E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.1626724179816918E-2</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9991626693811229E-2</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="8"/>
+        <v>2.3883427665604764E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>